--- a/Living_Course_Modules/Module_1_Incoming_NHL_Prospects/Data/elite_prospects_dataset.xlsx
+++ b/Living_Course_Modules/Module_1_Incoming_NHL_Prospects/Data/elite_prospects_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Punk_Media_GH\data_punk_media\Living_Course_Modules\Module_1_Incoming_NHL_Prospects\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93410D01-9B6C-4017-8D75-128477AEB97B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892416AA-1026-4E96-8809-A4B19AEF1E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{94354772-504C-4AA9-9298-D1FB12EF11CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" firstSheet="1" activeTab="1" xr2:uid="{94354772-504C-4AA9-9298-D1FB12EF11CB}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP_100_PROSPECTS" sheetId="3" r:id="rId1"/>
@@ -26,8 +26,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="27" r:id="rId11"/>
-    <pivotCache cacheId="32" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId11"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata">
   <metadataTypes count="1">
     <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
   </metadataTypes>
@@ -1033,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1051,19 +1051,18 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1073,47 +1072,45 @@
   </cellStyles>
   <dxfs count="58">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1773,24 +1770,47 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000"/>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1807,32 +1827,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -7180,7 +7179,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F569F04-61B0-4375-98A4-E6A765AA7829}" name="PivotTable7" cacheId="32" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8F569F04-61B0-4375-98A4-E6A765AA7829}" name="PivotTable7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
@@ -7293,7 +7292,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9209D9F4-8E51-4E53-958B-C00A7D7864AD}" name="PivotTable1" cacheId="27" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9209D9F4-8E51-4E53-958B-C00A7D7864AD}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="4">
   <location ref="A3:D30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="22">
     <pivotField showAll="0"/>
@@ -7995,13 +7994,13 @@
     <tableColumn id="19" xr3:uid="{CB8EA61C-1EBC-40AF-9A44-0F256EEE3393}" name="PIMPG" dataDxfId="44">
       <calculatedColumnFormula>Table1[[#This Row],[PIM]]/Table1[[#This Row],[GP]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{7598784B-45FB-4667-BC12-801F5D4ECB0D}" name="ADJ_NHLe_QUART" dataDxfId="27">
+    <tableColumn id="22" xr3:uid="{7598784B-45FB-4667-BC12-801F5D4ECB0D}" name="ADJ_NHLe_QUART" dataDxfId="43">
       <calculatedColumnFormula>IF(P2&lt;=$AA$2,"Q1", IF(P2&lt;=$AA$3,"Q2", IF(P2&lt;=$AA$4,"Q3","Q4")))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6DC71377-1B74-4BBA-9D9F-83BBF25271AB}" name="DOB" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{6D4DF179-8F56-4CDF-A5F3-D48FE7E2D325}" name="HEIGHT" dataDxfId="42"/>
-    <tableColumn id="14" xr3:uid="{1BD19745-FD4D-4137-8754-175830FEE7F2}" name="WEIGHT" dataDxfId="41"/>
-    <tableColumn id="15" xr3:uid="{D12B9282-9F93-4E82-8461-CDCECF1FB6F8}" name="SHOOTS" dataDxfId="40"/>
+    <tableColumn id="12" xr3:uid="{6DC71377-1B74-4BBA-9D9F-83BBF25271AB}" name="DOB" dataDxfId="42"/>
+    <tableColumn id="13" xr3:uid="{6D4DF179-8F56-4CDF-A5F3-D48FE7E2D325}" name="HEIGHT" dataDxfId="41"/>
+    <tableColumn id="14" xr3:uid="{1BD19745-FD4D-4137-8754-175830FEE7F2}" name="WEIGHT" dataDxfId="40"/>
+    <tableColumn id="15" xr3:uid="{D12B9282-9F93-4E82-8461-CDCECF1FB6F8}" name="SHOOTS" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8012,38 +8011,41 @@
   <autoFilter ref="Z1:AA5" xr:uid="{4979A6BF-C25F-4D49-917A-1F0FB9257846}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B92CFF12-4509-4E73-B444-1D3E9C28F169}" name="Quartile"/>
-    <tableColumn id="2" xr3:uid="{42160997-D0CD-439E-983F-6B51B3BFF2D4}" name="Value" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{42160997-D0CD-439E-983F-6B51B3BFF2D4}" name="Value" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E7CC33C3-6EAF-44EF-825B-0AAFA3D5B2FE}" name="Table10" displayName="Table10" ref="A1:V26" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" tableBorderDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E7CC33C3-6EAF-44EF-825B-0AAFA3D5B2FE}" name="Table10" displayName="Table10" ref="A1:V26" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
   <autoFilter ref="A1:V26" xr:uid="{E7CC33C3-6EAF-44EF-825B-0AAFA3D5B2FE}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V26">
+    <sortCondition descending="1" ref="Q1:Q26"/>
+  </sortState>
   <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{496997B9-08E9-4E06-B51B-A348408F335D}" name="FLAG" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{B7E69E4F-E9E4-4AB1-9B18-24BBD88EC16A}" name="NATIONALITY" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{A35220E8-0E71-46FF-8514-E5357BC50C5F}" name="NAME" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{2C7FF6CF-FA97-4ACE-8B59-9061D719271C}" name="POSITION" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{A667481F-5456-40BE-B01C-A537529E63BA}" name="TEAM" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{95B6AD53-6253-445D-BAB1-E787CCBD8F87}" name="LEAGUE" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{0F52B223-1A54-4686-A4D3-FA762A37EC43}" name="NHLe SCORE" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{6156E5D8-285D-4849-91AD-AE711BEF3363}" name="GP" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{CD3A6608-EB55-43AD-9C9E-DDEDF3386CB8}" name="G" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{BB026F25-FCBB-41AA-8225-DEC18C3DAFB0}" name="A" dataDxfId="14"/>
-    <tableColumn id="11" xr3:uid="{CDC1CD43-364E-4F83-8B5E-29CB8A88273B}" name="PTS" dataDxfId="13"/>
-    <tableColumn id="12" xr3:uid="{6D4D55B7-62AF-4FCA-BB26-9F01D4A46042}" name="PIM" dataDxfId="12"/>
-    <tableColumn id="13" xr3:uid="{94F5FF13-220D-4C72-B233-E6625E5EACD6}" name="GPG" dataDxfId="11"/>
-    <tableColumn id="14" xr3:uid="{267A7599-3B2E-4915-B71A-00911773B5C5}" name="APG" dataDxfId="10"/>
-    <tableColumn id="15" xr3:uid="{2DCBE332-65CC-4B36-80F3-DCC1F1C8ED40}" name="PPG" dataDxfId="9"/>
-    <tableColumn id="16" xr3:uid="{AE80C83A-C600-4ABA-8D91-10062FEB7348}" name="ADJ_PPG" dataDxfId="8"/>
-    <tableColumn id="17" xr3:uid="{9A540280-4D62-4F91-859F-E6C35D4F5D3E}" name="PIMPG" dataDxfId="7"/>
-    <tableColumn id="18" xr3:uid="{9697C2FA-B572-4D15-9B41-B8E380321554}" name="ADJ_NHLe_QUART" dataDxfId="6"/>
-    <tableColumn id="19" xr3:uid="{4EE84476-C735-4B2E-9A52-7EC7ECB7EE66}" name="DOB" dataDxfId="5"/>
-    <tableColumn id="20" xr3:uid="{427B3D54-675A-4ECA-A57E-5E5887B731BC}" name="HEIGHT" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{EA3DD5B8-2245-4C04-8042-5085462BF702}" name="WEIGHT" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{3503C537-ABCA-4D33-B902-CD069B768FD7}" name="SHOOTS" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{496997B9-08E9-4E06-B51B-A348408F335D}" name="FLAG" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{B7E69E4F-E9E4-4AB1-9B18-24BBD88EC16A}" name="NATIONALITY" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{A35220E8-0E71-46FF-8514-E5357BC50C5F}" name="NAME" dataDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{2C7FF6CF-FA97-4ACE-8B59-9061D719271C}" name="POSITION" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{A667481F-5456-40BE-B01C-A537529E63BA}" name="TEAM" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{95B6AD53-6253-445D-BAB1-E787CCBD8F87}" name="LEAGUE" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{0F52B223-1A54-4686-A4D3-FA762A37EC43}" name="NHLe SCORE" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{6156E5D8-285D-4849-91AD-AE711BEF3363}" name="GP" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{CD3A6608-EB55-43AD-9C9E-DDEDF3386CB8}" name="G" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{BB026F25-FCBB-41AA-8225-DEC18C3DAFB0}" name="A" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{CDC1CD43-364E-4F83-8B5E-29CB8A88273B}" name="PTS" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{6D4D55B7-62AF-4FCA-BB26-9F01D4A46042}" name="PIM" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{94F5FF13-220D-4C72-B233-E6625E5EACD6}" name="GPG" dataDxfId="22"/>
+    <tableColumn id="14" xr3:uid="{267A7599-3B2E-4915-B71A-00911773B5C5}" name="APG" dataDxfId="21"/>
+    <tableColumn id="15" xr3:uid="{2DCBE332-65CC-4B36-80F3-DCC1F1C8ED40}" name="PPG" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{AE80C83A-C600-4ABA-8D91-10062FEB7348}" name="ADJ_PPG" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{9A540280-4D62-4F91-859F-E6C35D4F5D3E}" name="PIMPG" dataDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{9697C2FA-B572-4D15-9B41-B8E380321554}" name="ADJ_NHLe_QUART" dataDxfId="17"/>
+    <tableColumn id="19" xr3:uid="{4EE84476-C735-4B2E-9A52-7EC7ECB7EE66}" name="DOB" dataDxfId="16"/>
+    <tableColumn id="20" xr3:uid="{427B3D54-675A-4ECA-A57E-5E5887B731BC}" name="HEIGHT" dataDxfId="15"/>
+    <tableColumn id="21" xr3:uid="{EA3DD5B8-2245-4C04-8042-5085462BF702}" name="WEIGHT" dataDxfId="14"/>
+    <tableColumn id="22" xr3:uid="{3503C537-ABCA-4D33-B902-CD069B768FD7}" name="SHOOTS" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8057,8 +8059,8 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DECE9F73-85D7-4ACE-9CDE-CAAE615AF3E1}" name="NAME"/>
-    <tableColumn id="2" xr3:uid="{6EB31303-A922-41DD-AE96-163A6370BEF9}" name="D" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{20745CF4-E8F4-4B18-911D-04845B82755D}" name="F" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{6EB31303-A922-41DD-AE96-163A6370BEF9}" name="D" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{20745CF4-E8F4-4B18-911D-04845B82755D}" name="F" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8072,8 +8074,8 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CB973532-5771-43D1-87ED-E0A404F969F4}" name="COUNTRY"/>
-    <tableColumn id="2" xr3:uid="{D6482447-1B03-43D8-8C56-F2A6A9F93B20}" name="COUNT" dataDxfId="39"/>
-    <tableColumn id="3" xr3:uid="{04AF1C21-4561-42CC-99D4-48DBD973AF36}" name="RELATIVE PCT" dataDxfId="38" dataCellStyle="Percent">
+    <tableColumn id="2" xr3:uid="{D6482447-1B03-43D8-8C56-F2A6A9F93B20}" name="COUNT" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{04AF1C21-4561-42CC-99D4-48DBD973AF36}" name="RELATIVE PCT" dataDxfId="9" dataCellStyle="Percent">
       <calculatedColumnFormula>Table4[[#This Row],[COUNT]]/100</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8089,22 +8091,22 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{AD929AAF-75D5-422C-9BD3-E0BD3270F87F}" name="LEAGUE"/>
-    <tableColumn id="2" xr3:uid="{196FB38B-F3DD-4C61-AF72-73F095B1B35A}" name="AVG PPG" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{A00AA23E-17CB-44A4-97BE-0C4EDB621184}" name="PLAYER COUNT" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{196FB38B-F3DD-4C61-AF72-73F095B1B35A}" name="AVG PPG" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{A00AA23E-17CB-44A4-97BE-0C4EDB621184}" name="PLAYER COUNT" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{41FAC5AE-9AC5-4427-ABB3-0F773EEA41CB}" name="Table3" displayName="Table3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{41FAC5AE-9AC5-4427-ABB3-0F773EEA41CB}" name="Table3" displayName="Table3" ref="A1:B4" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:B4" xr:uid="{41FAC5AE-9AC5-4427-ABB3-0F773EEA41CB}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B4">
     <sortCondition descending="1" ref="B1:B4"/>
   </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{990AC26D-67A5-435F-BCD3-6F00264DA0AA}" name="POSITION" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{176A2E3E-FAB7-4435-8BF3-BE880158652D}" name="COUNT" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{990AC26D-67A5-435F-BCD3-6F00264DA0AA}" name="POSITION" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{176A2E3E-FAB7-4435-8BF3-BE880158652D}" name="COUNT" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8118,7 +8120,7 @@
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{AB8609A7-4B92-41BF-826A-B371574B93DC}" name="COUNTRY"/>
-    <tableColumn id="2" xr3:uid="{BA9D5361-10CC-4F06-A024-965CB04482EC}" name="NHLe SCORE" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{BA9D5361-10CC-4F06-A024-965CB04482EC}" name="NHLe SCORE" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8132,8 +8134,8 @@
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{DF8D155B-F6D9-4D03-B965-45C4A14F2A19}" name="COUNTRY"/>
-    <tableColumn id="2" xr3:uid="{14A80AF0-B023-4768-8F36-5BE7882BF532}" name="NHLe SCORE" dataDxfId="30"/>
-    <tableColumn id="3" xr3:uid="{57CCFF73-22C8-4FBD-AE54-C3C94101949E}" name="TOTAL PLAYERS" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{14A80AF0-B023-4768-8F36-5BE7882BF532}" name="NHLe SCORE" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{57CCFF73-22C8-4FBD-AE54-C3C94101949E}" name="TOTAL PLAYERS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8614,7 +8616,7 @@
         <v>0.16</v>
       </c>
       <c r="R2" s="3" t="str">
-        <f>IF(P2&lt;=$AA$2,"Q1", IF(P2&lt;=$AA$3,"Q2", IF(P2&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" ref="R2:R33" si="0">IF(P2&lt;=$AA$2,"Q1", IF(P2&lt;=$AA$3,"Q2", IF(P2&lt;=$AA$4,"Q3","Q4")))</f>
         <v>Q4</v>
       </c>
       <c r="S2" s="2">
@@ -8695,7 +8697,7 @@
         <v>0.48484848484848486</v>
       </c>
       <c r="R3" s="3" t="str">
-        <f>IF(P3&lt;=$AA$2,"Q1", IF(P3&lt;=$AA$3,"Q2", IF(P3&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S3" s="2">
@@ -8776,7 +8778,7 @@
         <v>0.25</v>
       </c>
       <c r="R4" s="3" t="str">
-        <f>IF(P4&lt;=$AA$2,"Q1", IF(P4&lt;=$AA$3,"Q2", IF(P4&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S4" s="2">
@@ -8857,7 +8859,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="R5" s="3" t="str">
-        <f>IF(P5&lt;=$AA$2,"Q1", IF(P5&lt;=$AA$3,"Q2", IF(P5&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S5" s="2">
@@ -8938,7 +8940,7 @@
         <v>0.6875</v>
       </c>
       <c r="R6" s="3" t="str">
-        <f>IF(P6&lt;=$AA$2,"Q1", IF(P6&lt;=$AA$3,"Q2", IF(P6&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S6" s="2">
@@ -9012,7 +9014,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="R7" s="3" t="str">
-        <f>IF(P7&lt;=$AA$2,"Q1", IF(P7&lt;=$AA$3,"Q2", IF(P7&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S7" s="2">
@@ -9086,7 +9088,7 @@
         <v>2.2352941176470589</v>
       </c>
       <c r="R8" s="3" t="str">
-        <f>IF(P8&lt;=$AA$2,"Q1", IF(P8&lt;=$AA$3,"Q2", IF(P8&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S8" s="2">
@@ -9160,7 +9162,7 @@
         <v>1</v>
       </c>
       <c r="R9" s="3" t="str">
-        <f>IF(P9&lt;=$AA$2,"Q1", IF(P9&lt;=$AA$3,"Q2", IF(P9&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S9" s="2">
@@ -9234,7 +9236,7 @@
         <v>0.65625</v>
       </c>
       <c r="R10" s="3" t="str">
-        <f>IF(P10&lt;=$AA$2,"Q1", IF(P10&lt;=$AA$3,"Q2", IF(P10&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S10" s="2">
@@ -9308,7 +9310,7 @@
         <v>0.58823529411764708</v>
       </c>
       <c r="R11" s="3" t="str">
-        <f>IF(P11&lt;=$AA$2,"Q1", IF(P11&lt;=$AA$3,"Q2", IF(P11&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S11" s="2">
@@ -9382,7 +9384,7 @@
         <v>0.5</v>
       </c>
       <c r="R12" s="3" t="str">
-        <f>IF(P12&lt;=$AA$2,"Q1", IF(P12&lt;=$AA$3,"Q2", IF(P12&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S12" s="2">
@@ -9456,7 +9458,7 @@
         <v>0.20689655172413793</v>
       </c>
       <c r="R13" s="3" t="str">
-        <f>IF(P13&lt;=$AA$2,"Q1", IF(P13&lt;=$AA$3,"Q2", IF(P13&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S13" s="2">
@@ -9530,7 +9532,7 @@
         <v>0.67741935483870963</v>
       </c>
       <c r="R14" s="3" t="str">
-        <f>IF(P14&lt;=$AA$2,"Q1", IF(P14&lt;=$AA$3,"Q2", IF(P14&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S14" s="2">
@@ -9604,7 +9606,7 @@
         <v>0.5625</v>
       </c>
       <c r="R15" s="3" t="str">
-        <f>IF(P15&lt;=$AA$2,"Q1", IF(P15&lt;=$AA$3,"Q2", IF(P15&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S15" s="2">
@@ -9678,7 +9680,7 @@
         <v>1.5277777777777777</v>
       </c>
       <c r="R16" s="3" t="str">
-        <f>IF(P16&lt;=$AA$2,"Q1", IF(P16&lt;=$AA$3,"Q2", IF(P16&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S16" s="2">
@@ -9752,7 +9754,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="3" t="str">
-        <f>IF(P17&lt;=$AA$2,"Q1", IF(P17&lt;=$AA$3,"Q2", IF(P17&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S17" s="2">
@@ -9826,7 +9828,7 @@
         <v>1.4</v>
       </c>
       <c r="R18" s="3" t="str">
-        <f>IF(P18&lt;=$AA$2,"Q1", IF(P18&lt;=$AA$3,"Q2", IF(P18&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S18" s="2">
@@ -9900,7 +9902,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="R19" s="3" t="str">
-        <f>IF(P19&lt;=$AA$2,"Q1", IF(P19&lt;=$AA$3,"Q2", IF(P19&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S19" s="2">
@@ -9974,7 +9976,7 @@
         <v>0.77419354838709675</v>
       </c>
       <c r="R20" s="3" t="str">
-        <f>IF(P20&lt;=$AA$2,"Q1", IF(P20&lt;=$AA$3,"Q2", IF(P20&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S20" s="2">
@@ -10048,7 +10050,7 @@
         <v>0.5</v>
       </c>
       <c r="R21" s="3" t="str">
-        <f>IF(P21&lt;=$AA$2,"Q1", IF(P21&lt;=$AA$3,"Q2", IF(P21&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S21" s="2">
@@ -10122,7 +10124,7 @@
         <v>1.55</v>
       </c>
       <c r="R22" s="3" t="str">
-        <f>IF(P22&lt;=$AA$2,"Q1", IF(P22&lt;=$AA$3,"Q2", IF(P22&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S22" s="2">
@@ -10196,7 +10198,7 @@
         <v>1.1428571428571428</v>
       </c>
       <c r="R23" s="3" t="str">
-        <f>IF(P23&lt;=$AA$2,"Q1", IF(P23&lt;=$AA$3,"Q2", IF(P23&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S23" s="2">
@@ -10270,7 +10272,7 @@
         <v>0.83870967741935487</v>
       </c>
       <c r="R24" s="3" t="str">
-        <f>IF(P24&lt;=$AA$2,"Q1", IF(P24&lt;=$AA$3,"Q2", IF(P24&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q4</v>
       </c>
       <c r="S24" s="2">
@@ -10344,7 +10346,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="R25" s="3" t="str">
-        <f>IF(P25&lt;=$AA$2,"Q1", IF(P25&lt;=$AA$3,"Q2", IF(P25&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q3</v>
       </c>
       <c r="S25" s="2">
@@ -10418,7 +10420,7 @@
         <v>0.5161290322580645</v>
       </c>
       <c r="R26" s="3" t="str">
-        <f>IF(P26&lt;=$AA$2,"Q1", IF(P26&lt;=$AA$3,"Q2", IF(P26&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q3</v>
       </c>
       <c r="S26" s="2">
@@ -10492,7 +10494,7 @@
         <v>0.35294117647058826</v>
       </c>
       <c r="R27" s="3" t="str">
-        <f>IF(P27&lt;=$AA$2,"Q1", IF(P27&lt;=$AA$3,"Q2", IF(P27&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q3</v>
       </c>
       <c r="S27" s="2">
@@ -10566,7 +10568,7 @@
         <v>0.9375</v>
       </c>
       <c r="R28" s="3" t="str">
-        <f>IF(P28&lt;=$AA$2,"Q1", IF(P28&lt;=$AA$3,"Q2", IF(P28&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q3</v>
       </c>
       <c r="S28" s="2">
@@ -10640,7 +10642,7 @@
         <v>0.14814814814814814</v>
       </c>
       <c r="R29" s="3" t="str">
-        <f>IF(P29&lt;=$AA$2,"Q1", IF(P29&lt;=$AA$3,"Q2", IF(P29&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q3</v>
       </c>
       <c r="S29" s="2">
@@ -10714,7 +10716,7 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="R30" s="3" t="str">
-        <f>IF(P30&lt;=$AA$2,"Q1", IF(P30&lt;=$AA$3,"Q2", IF(P30&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q3</v>
       </c>
       <c r="S30" s="2">
@@ -10788,7 +10790,7 @@
         <v>0.125</v>
       </c>
       <c r="R31" s="3" t="str">
-        <f>IF(P31&lt;=$AA$2,"Q1", IF(P31&lt;=$AA$3,"Q2", IF(P31&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q3</v>
       </c>
       <c r="S31" s="2">
@@ -10862,7 +10864,7 @@
         <v>0.967741935483871</v>
       </c>
       <c r="R32" s="3" t="str">
-        <f>IF(P32&lt;=$AA$2,"Q1", IF(P32&lt;=$AA$3,"Q2", IF(P32&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q3</v>
       </c>
       <c r="S32" s="2">
@@ -10936,7 +10938,7 @@
         <v>0.43478260869565216</v>
       </c>
       <c r="R33" s="3" t="str">
-        <f>IF(P33&lt;=$AA$2,"Q1", IF(P33&lt;=$AA$3,"Q2", IF(P33&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="0"/>
         <v>Q3</v>
       </c>
       <c r="S33" s="2">
@@ -11010,7 +11012,7 @@
         <v>0.5625</v>
       </c>
       <c r="R34" s="3" t="str">
-        <f>IF(P34&lt;=$AA$2,"Q1", IF(P34&lt;=$AA$3,"Q2", IF(P34&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" ref="R34:R65" si="1">IF(P34&lt;=$AA$2,"Q1", IF(P34&lt;=$AA$3,"Q2", IF(P34&lt;=$AA$4,"Q3","Q4")))</f>
         <v>Q3</v>
       </c>
       <c r="S34" s="2">
@@ -11084,7 +11086,7 @@
         <v>0.6</v>
       </c>
       <c r="R35" s="3" t="str">
-        <f>IF(P35&lt;=$AA$2,"Q1", IF(P35&lt;=$AA$3,"Q2", IF(P35&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q3</v>
       </c>
       <c r="S35" s="2">
@@ -11158,7 +11160,7 @@
         <v>1.625</v>
       </c>
       <c r="R36" s="3" t="str">
-        <f>IF(P36&lt;=$AA$2,"Q1", IF(P36&lt;=$AA$3,"Q2", IF(P36&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q3</v>
       </c>
       <c r="S36" s="2">
@@ -11232,7 +11234,7 @@
         <v>0.13333333333333333</v>
       </c>
       <c r="R37" s="3" t="str">
-        <f>IF(P37&lt;=$AA$2,"Q1", IF(P37&lt;=$AA$3,"Q2", IF(P37&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q3</v>
       </c>
       <c r="S37" s="2">
@@ -11306,7 +11308,7 @@
         <v>0.25</v>
       </c>
       <c r="R38" s="3" t="str">
-        <f>IF(P38&lt;=$AA$2,"Q1", IF(P38&lt;=$AA$3,"Q2", IF(P38&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q3</v>
       </c>
       <c r="S38" s="2">
@@ -11380,7 +11382,7 @@
         <v>0.2608695652173913</v>
       </c>
       <c r="R39" s="3" t="str">
-        <f>IF(P39&lt;=$AA$2,"Q1", IF(P39&lt;=$AA$3,"Q2", IF(P39&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q3</v>
       </c>
       <c r="S39" s="2">
@@ -11454,7 +11456,7 @@
         <v>0.15384615384615385</v>
       </c>
       <c r="R40" s="3" t="str">
-        <f>IF(P40&lt;=$AA$2,"Q1", IF(P40&lt;=$AA$3,"Q2", IF(P40&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q3</v>
       </c>
       <c r="S40" s="2">
@@ -11528,7 +11530,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="R41" s="3" t="str">
-        <f>IF(P41&lt;=$AA$2,"Q1", IF(P41&lt;=$AA$3,"Q2", IF(P41&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q3</v>
       </c>
       <c r="S41" s="2">
@@ -11602,7 +11604,7 @@
         <v>0.5</v>
       </c>
       <c r="R42" s="3" t="str">
-        <f>IF(P42&lt;=$AA$2,"Q1", IF(P42&lt;=$AA$3,"Q2", IF(P42&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q3</v>
       </c>
       <c r="S42" s="2">
@@ -11676,7 +11678,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="R43" s="3" t="str">
-        <f>IF(P43&lt;=$AA$2,"Q1", IF(P43&lt;=$AA$3,"Q2", IF(P43&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q3</v>
       </c>
       <c r="S43" s="2">
@@ -11750,7 +11752,7 @@
         <v>0.94117647058823528</v>
       </c>
       <c r="R44" s="3" t="str">
-        <f>IF(P44&lt;=$AA$2,"Q1", IF(P44&lt;=$AA$3,"Q2", IF(P44&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q3</v>
       </c>
       <c r="S44" s="2">
@@ -11824,7 +11826,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="3" t="str">
-        <f>IF(P45&lt;=$AA$2,"Q1", IF(P45&lt;=$AA$3,"Q2", IF(P45&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q3</v>
       </c>
       <c r="S45" s="2">
@@ -11898,7 +11900,7 @@
         <v>0.43333333333333335</v>
       </c>
       <c r="R46" s="3" t="str">
-        <f>IF(P46&lt;=$AA$2,"Q1", IF(P46&lt;=$AA$3,"Q2", IF(P46&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q3</v>
       </c>
       <c r="S46" s="2">
@@ -11972,7 +11974,7 @@
         <v>0.41379310344827586</v>
       </c>
       <c r="R47" s="3" t="str">
-        <f>IF(P47&lt;=$AA$2,"Q1", IF(P47&lt;=$AA$3,"Q2", IF(P47&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q3</v>
       </c>
       <c r="S47" s="2">
@@ -12046,7 +12048,7 @@
         <v>0.1</v>
       </c>
       <c r="R48" s="3" t="str">
-        <f>IF(P48&lt;=$AA$2,"Q1", IF(P48&lt;=$AA$3,"Q2", IF(P48&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S48" s="2">
@@ -12120,7 +12122,7 @@
         <v>0.72727272727272729</v>
       </c>
       <c r="R49" s="3" t="str">
-        <f>IF(P49&lt;=$AA$2,"Q1", IF(P49&lt;=$AA$3,"Q2", IF(P49&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S49" s="2">
@@ -12194,7 +12196,7 @@
         <v>0.29411764705882354</v>
       </c>
       <c r="R50" s="3" t="str">
-        <f>IF(P50&lt;=$AA$2,"Q1", IF(P50&lt;=$AA$3,"Q2", IF(P50&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S50" s="2">
@@ -12268,7 +12270,7 @@
         <v>0.52941176470588236</v>
       </c>
       <c r="R51" s="3" t="str">
-        <f>IF(P51&lt;=$AA$2,"Q1", IF(P51&lt;=$AA$3,"Q2", IF(P51&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S51" s="2">
@@ -12342,7 +12344,7 @@
         <v>0.8</v>
       </c>
       <c r="R52" s="3" t="str">
-        <f>IF(P52&lt;=$AA$2,"Q1", IF(P52&lt;=$AA$3,"Q2", IF(P52&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S52" s="2">
@@ -12416,7 +12418,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="R53" s="3" t="str">
-        <f>IF(P53&lt;=$AA$2,"Q1", IF(P53&lt;=$AA$3,"Q2", IF(P53&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S53" s="2">
@@ -12490,7 +12492,7 @@
         <v>0.95238095238095233</v>
       </c>
       <c r="R54" s="3" t="str">
-        <f>IF(P54&lt;=$AA$2,"Q1", IF(P54&lt;=$AA$3,"Q2", IF(P54&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S54" s="2">
@@ -12564,7 +12566,7 @@
         <v>0.25</v>
       </c>
       <c r="R55" s="3" t="str">
-        <f>IF(P55&lt;=$AA$2,"Q1", IF(P55&lt;=$AA$3,"Q2", IF(P55&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S55" s="2">
@@ -12638,7 +12640,7 @@
         <v>0.79411764705882348</v>
       </c>
       <c r="R56" s="3" t="str">
-        <f>IF(P56&lt;=$AA$2,"Q1", IF(P56&lt;=$AA$3,"Q2", IF(P56&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S56" s="2">
@@ -12712,7 +12714,7 @@
         <v>0.4375</v>
       </c>
       <c r="R57" s="3" t="str">
-        <f>IF(P57&lt;=$AA$2,"Q1", IF(P57&lt;=$AA$3,"Q2", IF(P57&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S57" s="2">
@@ -12786,7 +12788,7 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="R58" s="3" t="str">
-        <f>IF(P58&lt;=$AA$2,"Q1", IF(P58&lt;=$AA$3,"Q2", IF(P58&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S58" s="2">
@@ -12860,7 +12862,7 @@
         <v>1.2941176470588236</v>
       </c>
       <c r="R59" s="3" t="str">
-        <f>IF(P59&lt;=$AA$2,"Q1", IF(P59&lt;=$AA$3,"Q2", IF(P59&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S59" s="2">
@@ -12934,7 +12936,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="R60" s="3" t="str">
-        <f>IF(P60&lt;=$AA$2,"Q1", IF(P60&lt;=$AA$3,"Q2", IF(P60&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S60" s="2">
@@ -13008,7 +13010,7 @@
         <v>0.11428571428571428</v>
       </c>
       <c r="R61" s="3" t="str">
-        <f>IF(P61&lt;=$AA$2,"Q1", IF(P61&lt;=$AA$3,"Q2", IF(P61&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S61" s="2">
@@ -13082,7 +13084,7 @@
         <v>0.08</v>
       </c>
       <c r="R62" s="3" t="str">
-        <f>IF(P62&lt;=$AA$2,"Q1", IF(P62&lt;=$AA$3,"Q2", IF(P62&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S62" s="2">
@@ -13156,7 +13158,7 @@
         <v>1.2962962962962963</v>
       </c>
       <c r="R63" s="3" t="str">
-        <f>IF(P63&lt;=$AA$2,"Q1", IF(P63&lt;=$AA$3,"Q2", IF(P63&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S63" s="2">
@@ -13230,7 +13232,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="R64" s="3" t="str">
-        <f>IF(P64&lt;=$AA$2,"Q1", IF(P64&lt;=$AA$3,"Q2", IF(P64&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S64" s="2">
@@ -13304,7 +13306,7 @@
         <v>0.12903225806451613</v>
       </c>
       <c r="R65" s="3" t="str">
-        <f>IF(P65&lt;=$AA$2,"Q1", IF(P65&lt;=$AA$3,"Q2", IF(P65&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="1"/>
         <v>Q2</v>
       </c>
       <c r="S65" s="2">
@@ -13378,7 +13380,7 @@
         <v>7.6923076923076927E-2</v>
       </c>
       <c r="R66" s="3" t="str">
-        <f>IF(P66&lt;=$AA$2,"Q1", IF(P66&lt;=$AA$3,"Q2", IF(P66&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" ref="R66:R93" si="2">IF(P66&lt;=$AA$2,"Q1", IF(P66&lt;=$AA$3,"Q2", IF(P66&lt;=$AA$4,"Q3","Q4")))</f>
         <v>Q2</v>
       </c>
       <c r="S66" s="2">
@@ -13452,7 +13454,7 @@
         <v>1.375</v>
       </c>
       <c r="R67" s="3" t="str">
-        <f>IF(P67&lt;=$AA$2,"Q1", IF(P67&lt;=$AA$3,"Q2", IF(P67&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q2</v>
       </c>
       <c r="S67" s="2">
@@ -13526,7 +13528,7 @@
         <v>0.52631578947368418</v>
       </c>
       <c r="R68" s="3" t="str">
-        <f>IF(P68&lt;=$AA$2,"Q1", IF(P68&lt;=$AA$3,"Q2", IF(P68&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q2</v>
       </c>
       <c r="S68" s="2">
@@ -13600,7 +13602,7 @@
         <v>0</v>
       </c>
       <c r="R69" s="3" t="str">
-        <f>IF(P69&lt;=$AA$2,"Q1", IF(P69&lt;=$AA$3,"Q2", IF(P69&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q2</v>
       </c>
       <c r="S69" s="2">
@@ -13674,7 +13676,7 @@
         <v>0.6875</v>
       </c>
       <c r="R70" s="3" t="str">
-        <f>IF(P70&lt;=$AA$2,"Q1", IF(P70&lt;=$AA$3,"Q2", IF(P70&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q2</v>
       </c>
       <c r="S70" s="2">
@@ -13748,7 +13750,7 @@
         <v>0.51851851851851849</v>
       </c>
       <c r="R71" s="3" t="str">
-        <f>IF(P71&lt;=$AA$2,"Q1", IF(P71&lt;=$AA$3,"Q2", IF(P71&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q2</v>
       </c>
       <c r="S71" s="2">
@@ -13822,7 +13824,7 @@
         <v>0.38709677419354838</v>
       </c>
       <c r="R72" s="3" t="str">
-        <f>IF(P72&lt;=$AA$2,"Q1", IF(P72&lt;=$AA$3,"Q2", IF(P72&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q2</v>
       </c>
       <c r="S72" s="2">
@@ -13896,7 +13898,7 @@
         <v>0.45714285714285713</v>
       </c>
       <c r="R73" s="3" t="str">
-        <f>IF(P73&lt;=$AA$2,"Q1", IF(P73&lt;=$AA$3,"Q2", IF(P73&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S73" s="2">
@@ -13970,7 +13972,7 @@
         <v>0.15384615384615385</v>
       </c>
       <c r="R74" s="3" t="str">
-        <f>IF(P74&lt;=$AA$2,"Q1", IF(P74&lt;=$AA$3,"Q2", IF(P74&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S74" s="2">
@@ -14044,7 +14046,7 @@
         <v>0</v>
       </c>
       <c r="R75" s="3" t="str">
-        <f>IF(P75&lt;=$AA$2,"Q1", IF(P75&lt;=$AA$3,"Q2", IF(P75&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S75" s="2">
@@ -14118,7 +14120,7 @@
         <v>9.0909090909090912E-2</v>
       </c>
       <c r="R76" s="3" t="str">
-        <f>IF(P76&lt;=$AA$2,"Q1", IF(P76&lt;=$AA$3,"Q2", IF(P76&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S76" s="2">
@@ -14192,7 +14194,7 @@
         <v>0.88888888888888884</v>
       </c>
       <c r="R77" s="3" t="str">
-        <f>IF(P77&lt;=$AA$2,"Q1", IF(P77&lt;=$AA$3,"Q2", IF(P77&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S77" s="2">
@@ -14266,7 +14268,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="R78" s="3" t="str">
-        <f>IF(P78&lt;=$AA$2,"Q1", IF(P78&lt;=$AA$3,"Q2", IF(P78&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S78" s="2">
@@ -14340,7 +14342,7 @@
         <v>1.0476190476190477</v>
       </c>
       <c r="R79" s="3" t="str">
-        <f>IF(P79&lt;=$AA$2,"Q1", IF(P79&lt;=$AA$3,"Q2", IF(P79&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S79" s="2">
@@ -14414,7 +14416,7 @@
         <v>0.36363636363636365</v>
       </c>
       <c r="R80" s="3" t="str">
-        <f>IF(P80&lt;=$AA$2,"Q1", IF(P80&lt;=$AA$3,"Q2", IF(P80&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S80" s="2">
@@ -14488,7 +14490,7 @@
         <v>0.5</v>
       </c>
       <c r="R81" s="3" t="str">
-        <f>IF(P81&lt;=$AA$2,"Q1", IF(P81&lt;=$AA$3,"Q2", IF(P81&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S81" s="2">
@@ -14562,7 +14564,7 @@
         <v>1.8888888888888888</v>
       </c>
       <c r="R82" s="3" t="str">
-        <f>IF(P82&lt;=$AA$2,"Q1", IF(P82&lt;=$AA$3,"Q2", IF(P82&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S82" s="2">
@@ -14636,7 +14638,7 @@
         <v>0.90625</v>
       </c>
       <c r="R83" s="3" t="str">
-        <f>IF(P83&lt;=$AA$2,"Q1", IF(P83&lt;=$AA$3,"Q2", IF(P83&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S83" s="2">
@@ -14710,7 +14712,7 @@
         <v>0.35294117647058826</v>
       </c>
       <c r="R84" s="3" t="str">
-        <f>IF(P84&lt;=$AA$2,"Q1", IF(P84&lt;=$AA$3,"Q2", IF(P84&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S84" s="2">
@@ -14784,7 +14786,7 @@
         <v>0.36363636363636365</v>
       </c>
       <c r="R85" s="3" t="str">
-        <f>IF(P85&lt;=$AA$2,"Q1", IF(P85&lt;=$AA$3,"Q2", IF(P85&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S85" s="2">
@@ -14858,7 +14860,7 @@
         <v>0.30769230769230771</v>
       </c>
       <c r="R86" s="3" t="str">
-        <f>IF(P86&lt;=$AA$2,"Q1", IF(P86&lt;=$AA$3,"Q2", IF(P86&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S86" s="2">
@@ -14932,7 +14934,7 @@
         <v>0.30769230769230771</v>
       </c>
       <c r="R87" s="3" t="str">
-        <f>IF(P87&lt;=$AA$2,"Q1", IF(P87&lt;=$AA$3,"Q2", IF(P87&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S87" s="2">
@@ -15006,7 +15008,7 @@
         <v>0.93548387096774188</v>
       </c>
       <c r="R88" s="3" t="str">
-        <f>IF(P88&lt;=$AA$2,"Q1", IF(P88&lt;=$AA$3,"Q2", IF(P88&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S88" s="2">
@@ -15080,7 +15082,7 @@
         <v>0.17647058823529413</v>
       </c>
       <c r="R89" s="3" t="str">
-        <f>IF(P89&lt;=$AA$2,"Q1", IF(P89&lt;=$AA$3,"Q2", IF(P89&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S89" s="2">
@@ -15154,7 +15156,7 @@
         <v>0.30769230769230771</v>
       </c>
       <c r="R90" s="3" t="str">
-        <f>IF(P90&lt;=$AA$2,"Q1", IF(P90&lt;=$AA$3,"Q2", IF(P90&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S90" s="2">
@@ -15228,7 +15230,7 @@
         <v>2.8461538461538463</v>
       </c>
       <c r="R91" s="3" t="str">
-        <f>IF(P91&lt;=$AA$2,"Q1", IF(P91&lt;=$AA$3,"Q2", IF(P91&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q1</v>
       </c>
       <c r="S91" s="2">
@@ -15302,7 +15304,7 @@
         <v>0.5625</v>
       </c>
       <c r="R92" s="3" t="str">
-        <f>IF(P92&lt;=$AA$2,"Q1", IF(P92&lt;=$AA$3,"Q2", IF(P92&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q4</v>
       </c>
       <c r="S92" s="2">
@@ -15376,7 +15378,7 @@
         <v>0.25</v>
       </c>
       <c r="R93" s="3" t="str">
-        <f>IF(P93&lt;=$AA$2,"Q1", IF(P93&lt;=$AA$3,"Q2", IF(P93&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" si="2"/>
         <v>Q4</v>
       </c>
       <c r="S93" s="2">
@@ -15450,7 +15452,7 @@
         <v>1.3125</v>
       </c>
       <c r="R94" s="3" t="str">
-        <f t="shared" ref="R66:R101" si="0">IF(P94&lt;=$AA$2,"Q1", IF(P94&lt;=$AA$3,"Q2", IF(P94&lt;=$AA$4,"Q3","Q4")))</f>
+        <f t="shared" ref="R94:R101" si="3">IF(P94&lt;=$AA$2,"Q1", IF(P94&lt;=$AA$3,"Q2", IF(P94&lt;=$AA$4,"Q3","Q4")))</f>
         <v>Q3</v>
       </c>
       <c r="S94" s="2">
@@ -15524,7 +15526,7 @@
         <v>0.77777777777777779</v>
       </c>
       <c r="R95" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Q3</v>
       </c>
       <c r="S95" s="2">
@@ -15594,7 +15596,7 @@
         <v>0</v>
       </c>
       <c r="R96" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Q1</v>
       </c>
       <c r="S96" s="2">
@@ -15664,7 +15666,7 @@
         <v>0</v>
       </c>
       <c r="R97" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Q1</v>
       </c>
       <c r="S97" s="2">
@@ -15734,7 +15736,7 @@
         <v>0</v>
       </c>
       <c r="R98" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Q1</v>
       </c>
       <c r="S98" s="2">
@@ -15804,7 +15806,7 @@
         <v>0</v>
       </c>
       <c r="R99" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Q1</v>
       </c>
       <c r="S99" s="2">
@@ -15874,7 +15876,7 @@
         <v>0</v>
       </c>
       <c r="R100" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Q1</v>
       </c>
       <c r="S100" s="2">
@@ -15948,7 +15950,7 @@
         <v>1.125</v>
       </c>
       <c r="R101" s="3" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>Q1</v>
       </c>
       <c r="S101" s="2">
@@ -16192,8 +16194,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C13">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="B2:B13">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16204,8 +16206,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B13">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="C2:C13">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -16228,7 +16230,7 @@
   <dimension ref="A1:V26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16237,7 +16239,7 @@
     <col min="3" max="3" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
@@ -16251,70 +16253,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="K1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="L1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="12" t="s">
         <v>121</v>
       </c>
     </row>
@@ -16326,63 +16328,63 @@
         <v>227</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D2" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="9">
-        <v>0.78</v>
-      </c>
-      <c r="H2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="H2" s="8">
+        <v>17</v>
+      </c>
+      <c r="I2" s="8">
+        <v>7</v>
+      </c>
+      <c r="J2" s="8">
+        <v>18</v>
+      </c>
+      <c r="K2" s="8">
         <v>25</v>
       </c>
-      <c r="I2" s="9">
-        <v>6</v>
-      </c>
-      <c r="J2" s="9">
-        <v>18</v>
-      </c>
-      <c r="K2" s="9">
-        <v>24</v>
-      </c>
-      <c r="L2" s="9">
-        <v>4</v>
-      </c>
-      <c r="M2" s="10">
-        <v>0.24</v>
-      </c>
-      <c r="N2" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="O2" s="10">
-        <v>0.96</v>
-      </c>
-      <c r="P2" s="10">
-        <v>0.74880000000000002</v>
-      </c>
-      <c r="Q2" s="10">
-        <v>0.16</v>
-      </c>
-      <c r="R2" s="10" t="s">
+      <c r="L2" s="8">
+        <v>38</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="N2" s="9">
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="O2" s="9">
+        <v>1.4705882352941178</v>
+      </c>
+      <c r="P2" s="9">
+        <v>0.38235294117647062</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>2.2352941176470589</v>
+      </c>
+      <c r="R2" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="S2" s="11">
-        <v>39354</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U2" s="9">
-        <v>181</v>
-      </c>
-      <c r="V2" s="9" t="s">
+      <c r="S2" s="10">
+        <v>39571</v>
+      </c>
+      <c r="T2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U2" s="8">
+        <v>187</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -16394,64 +16396,64 @@
         <v>226</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H3" s="8">
+        <v>20</v>
+      </c>
+      <c r="I3" s="8">
+        <v>7</v>
+      </c>
+      <c r="J3" s="8">
+        <v>15</v>
+      </c>
+      <c r="K3" s="8">
+        <v>22</v>
+      </c>
+      <c r="L3" s="8">
+        <v>31</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="O3" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>1.55</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S3" s="10">
+        <v>39342</v>
+      </c>
+      <c r="T3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="U3" s="8">
         <v>187</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="H3" s="9">
-        <v>33</v>
-      </c>
-      <c r="I3" s="9">
-        <v>22</v>
-      </c>
-      <c r="J3" s="9">
-        <v>33</v>
-      </c>
-      <c r="K3" s="9">
-        <v>55</v>
-      </c>
-      <c r="L3" s="9">
-        <v>16</v>
-      </c>
-      <c r="M3" s="10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N3" s="10">
-        <v>1</v>
-      </c>
-      <c r="O3" s="10">
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="P3" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="Q3" s="10">
-        <v>0.48484848484848486</v>
-      </c>
-      <c r="R3" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S3" s="11">
-        <v>39548</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U3" s="9">
-        <v>183</v>
-      </c>
-      <c r="V3" s="9" t="s">
-        <v>100</v>
+      <c r="V3" s="8" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -16462,63 +16464,63 @@
         <v>225</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="D4" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="9">
-        <v>0.41</v>
-      </c>
-      <c r="H4" s="9">
-        <v>16</v>
-      </c>
-      <c r="I4" s="9">
         <v>4</v>
       </c>
-      <c r="J4" s="9">
-        <v>14</v>
-      </c>
-      <c r="K4" s="9">
-        <v>18</v>
-      </c>
-      <c r="L4" s="9">
-        <v>4</v>
-      </c>
-      <c r="M4" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="N4" s="10">
-        <v>0.875</v>
-      </c>
-      <c r="O4" s="10">
-        <v>1.125</v>
-      </c>
-      <c r="P4" s="10">
-        <v>0.46124999999999999</v>
-      </c>
-      <c r="Q4" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="R4" s="10" t="s">
+      <c r="G4" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="8">
+        <v>36</v>
+      </c>
+      <c r="I4" s="8">
+        <v>19</v>
+      </c>
+      <c r="J4" s="8">
+        <v>23</v>
+      </c>
+      <c r="K4" s="8">
+        <v>42</v>
+      </c>
+      <c r="L4" s="8">
+        <v>55</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.63888888888888884</v>
+      </c>
+      <c r="O4" s="9">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>1.5277777777777777</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="S4" s="11">
-        <v>39435</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U4" s="9">
-        <v>170</v>
-      </c>
-      <c r="V4" s="9" t="s">
+      <c r="S4" s="10">
+        <v>39554</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="U4" s="8">
+        <v>159</v>
+      </c>
+      <c r="V4" s="8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -16530,63 +16532,63 @@
         <v>225</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H5" s="9">
-        <v>9</v>
-      </c>
-      <c r="I5" s="9">
-        <v>8</v>
-      </c>
-      <c r="J5" s="9">
+        <v>27</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="H5" s="8">
+        <v>20</v>
+      </c>
+      <c r="I5" s="8">
         <v>5</v>
       </c>
-      <c r="K5" s="9">
-        <v>13</v>
-      </c>
-      <c r="L5" s="9">
-        <v>6</v>
-      </c>
-      <c r="M5" s="10">
-        <v>0.88888888888888884</v>
-      </c>
-      <c r="N5" s="10">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="O5" s="10">
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="P5" s="10">
-        <v>0.41888888888888887</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R5" s="10" t="s">
+      <c r="J5" s="8">
+        <v>12</v>
+      </c>
+      <c r="K5" s="8">
+        <v>17</v>
+      </c>
+      <c r="L5" s="8">
+        <v>28</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.6</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.85</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.34849999999999998</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="S5" s="11">
-        <v>39662</v>
-      </c>
-      <c r="T5" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U5" s="9">
+      <c r="S5" s="10">
+        <v>39548</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="U5" s="8">
         <v>185</v>
       </c>
-      <c r="V5" s="9" t="s">
+      <c r="V5" s="8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -16598,675 +16600,675 @@
         <v>225</v>
       </c>
       <c r="C6" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="8">
+        <v>28</v>
+      </c>
+      <c r="I6" s="8">
+        <v>8</v>
+      </c>
+      <c r="J6" s="8">
+        <v>21</v>
+      </c>
+      <c r="K6" s="8">
+        <v>29</v>
+      </c>
+      <c r="L6" s="8">
+        <v>32</v>
+      </c>
+      <c r="M6" s="9">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="O6" s="9">
+        <v>1.0357142857142858</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.31071428571428572</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S6" s="10">
+        <v>39621</v>
+      </c>
+      <c r="T6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U6" s="8">
+        <v>194</v>
+      </c>
+      <c r="V6" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="H7" s="8">
+        <v>18</v>
+      </c>
+      <c r="I7" s="8">
+        <v>12</v>
+      </c>
+      <c r="J7" s="8">
+        <v>14</v>
+      </c>
+      <c r="K7" s="8">
+        <v>26</v>
+      </c>
+      <c r="L7" s="8">
+        <v>18</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.37555555555555559</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>1</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S7" s="10">
+        <v>39614</v>
+      </c>
+      <c r="T7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="U7" s="8">
+        <v>183</v>
+      </c>
+      <c r="V7" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="8">
+        <v>31</v>
+      </c>
+      <c r="I8" s="8">
+        <v>18</v>
+      </c>
+      <c r="J8" s="8">
+        <v>14</v>
+      </c>
+      <c r="K8" s="8">
+        <v>32</v>
+      </c>
+      <c r="L8" s="8">
+        <v>26</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0.58064516129032262</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.45161290322580644</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1.032258064516129</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.30967741935483867</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>0.83870967741935487</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S8" s="10">
+        <v>39536</v>
+      </c>
+      <c r="T8" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="U8" s="8">
+        <v>227</v>
+      </c>
+      <c r="V8" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H9" s="8">
+        <v>31</v>
+      </c>
+      <c r="I9" s="8">
+        <v>14</v>
+      </c>
+      <c r="J9" s="8">
+        <v>21</v>
+      </c>
+      <c r="K9" s="8">
+        <v>35</v>
+      </c>
+      <c r="L9" s="8">
+        <v>24</v>
+      </c>
+      <c r="M9" s="9">
+        <v>0.45161290322580644</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="O9" s="9">
+        <v>1.1290322580645162</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.33870967741935487</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.77419354838709675</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S9" s="10">
+        <v>39445</v>
+      </c>
+      <c r="T9" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U9" s="8">
+        <v>187</v>
+      </c>
+      <c r="V9" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E10" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="H6" s="9">
-        <v>32</v>
-      </c>
-      <c r="I6" s="9">
-        <v>17</v>
-      </c>
-      <c r="J6" s="9">
-        <v>27</v>
-      </c>
-      <c r="K6" s="9">
-        <v>44</v>
-      </c>
-      <c r="L6" s="9">
-        <v>22</v>
-      </c>
-      <c r="M6" s="10">
-        <v>0.53125</v>
-      </c>
-      <c r="N6" s="10">
-        <v>0.84375</v>
-      </c>
-      <c r="O6" s="10">
-        <v>1.375</v>
-      </c>
-      <c r="P6" s="10">
-        <v>0.41249999999999998</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>0.6875</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S6" s="11">
-        <v>39600</v>
-      </c>
-      <c r="T6" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="U6" s="9">
-        <v>183</v>
-      </c>
-      <c r="V6" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="e" vm="4">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="H7" s="9">
-        <v>6</v>
-      </c>
-      <c r="I7" s="9">
-        <v>5</v>
-      </c>
-      <c r="J7" s="9">
-        <v>2</v>
-      </c>
-      <c r="K7" s="9">
-        <v>7</v>
-      </c>
-      <c r="L7" s="9">
-        <v>4</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="N7" s="10">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="O7" s="10">
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="P7" s="10">
-        <v>0.38500000000000006</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S7" s="11">
-        <v>39672</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="U7" s="9">
-        <v>196</v>
-      </c>
-      <c r="V7" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="9">
-        <v>0.26</v>
-      </c>
-      <c r="H8" s="9">
-        <v>17</v>
-      </c>
-      <c r="I8" s="9">
-        <v>7</v>
-      </c>
-      <c r="J8" s="9">
-        <v>18</v>
-      </c>
-      <c r="K8" s="9">
-        <v>25</v>
-      </c>
-      <c r="L8" s="9">
-        <v>38</v>
-      </c>
-      <c r="M8" s="10">
-        <v>0.41176470588235292</v>
-      </c>
-      <c r="N8" s="10">
-        <v>1.0588235294117647</v>
-      </c>
-      <c r="O8" s="10">
-        <v>1.4705882352941178</v>
-      </c>
-      <c r="P8" s="10">
-        <v>0.38235294117647062</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>2.2352941176470589</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S8" s="11">
-        <v>39571</v>
-      </c>
-      <c r="T8" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="U8" s="9">
-        <v>187</v>
-      </c>
-      <c r="V8" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0.26</v>
-      </c>
-      <c r="H9" s="9">
-        <v>18</v>
-      </c>
-      <c r="I9" s="9">
-        <v>12</v>
-      </c>
-      <c r="J9" s="9">
-        <v>14</v>
-      </c>
-      <c r="K9" s="9">
-        <v>26</v>
-      </c>
-      <c r="L9" s="9">
-        <v>18</v>
-      </c>
-      <c r="M9" s="10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="N9" s="10">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="O9" s="10">
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="P9" s="10">
-        <v>0.37555555555555559</v>
-      </c>
-      <c r="Q9" s="10">
-        <v>1</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S9" s="11">
-        <v>39614</v>
-      </c>
-      <c r="T9" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="U9" s="9">
-        <v>183</v>
-      </c>
-      <c r="V9" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>0.3</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>32</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
+        <v>17</v>
+      </c>
+      <c r="J10" s="8">
+        <v>27</v>
+      </c>
+      <c r="K10" s="8">
+        <v>44</v>
+      </c>
+      <c r="L10" s="8">
+        <v>22</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0.53125</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.84375</v>
+      </c>
+      <c r="O10" s="9">
+        <v>1.375</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0.41249999999999998</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>0.6875</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S10" s="10">
+        <v>39600</v>
+      </c>
+      <c r="T10" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U10" s="8">
+        <v>183</v>
+      </c>
+      <c r="V10" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="H11" s="8">
+        <v>31</v>
+      </c>
+      <c r="I11" s="8">
+        <v>15</v>
+      </c>
+      <c r="J11" s="8">
+        <v>25</v>
+      </c>
+      <c r="K11" s="8">
+        <v>40</v>
+      </c>
+      <c r="L11" s="8">
+        <v>21</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0.4838709677419355</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0.80645161290322576</v>
+      </c>
+      <c r="O11" s="9">
+        <v>1.2903225806451613</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0.3612903225806452</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.67741935483870963</v>
+      </c>
+      <c r="R11" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S11" s="10">
+        <v>39567</v>
+      </c>
+      <c r="T11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="U11" s="8">
+        <v>181</v>
+      </c>
+      <c r="V11" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="9">
+      <c r="G12" s="8">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="H12" s="8">
+        <v>9</v>
+      </c>
+      <c r="I12" s="8">
+        <v>8</v>
+      </c>
+      <c r="J12" s="8">
+        <v>5</v>
+      </c>
+      <c r="K12" s="8">
+        <v>13</v>
+      </c>
+      <c r="L12" s="8">
+        <v>6</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1.4444444444444444</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0.41888888888888887</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S12" s="10">
+        <v>39662</v>
+      </c>
+      <c r="T12" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="U12" s="8">
+        <v>185</v>
+      </c>
+      <c r="V12" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="e" vm="4">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.33</v>
+      </c>
+      <c r="H13" s="8">
+        <v>6</v>
+      </c>
+      <c r="I13" s="8">
+        <v>5</v>
+      </c>
+      <c r="J13" s="8">
+        <v>2</v>
+      </c>
+      <c r="K13" s="8">
+        <v>7</v>
+      </c>
+      <c r="L13" s="8">
+        <v>4</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N13" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O13" s="9">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="P13" s="9">
+        <v>0.38500000000000006</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S13" s="10">
+        <v>39672</v>
+      </c>
+      <c r="T13" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="U13" s="8">
+        <v>196</v>
+      </c>
+      <c r="V13" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="e" vm="7">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="H14" s="8">
+        <v>18</v>
+      </c>
+      <c r="I14" s="8">
+        <v>14</v>
+      </c>
+      <c r="J14" s="8">
+        <v>10</v>
+      </c>
+      <c r="K14" s="8">
+        <v>24</v>
+      </c>
+      <c r="L14" s="8">
+        <v>12</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0.77777777777777779</v>
+      </c>
+      <c r="N14" s="9">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="O14" s="9">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="P14" s="9">
+        <v>0.34666666666666668</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S14" s="10">
+        <v>39556</v>
+      </c>
+      <c r="T14" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="U14" s="8">
+        <v>185</v>
+      </c>
+      <c r="V14" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="7" t="s">
         <v>21</v>
-      </c>
-      <c r="K10" s="9">
-        <v>40</v>
-      </c>
-      <c r="L10" s="9">
-        <v>21</v>
-      </c>
-      <c r="M10" s="10">
-        <v>0.59375</v>
-      </c>
-      <c r="N10" s="10">
-        <v>0.65625</v>
-      </c>
-      <c r="O10" s="10">
-        <v>1.25</v>
-      </c>
-      <c r="P10" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="Q10" s="10">
-        <v>0.65625</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S10" s="11">
-        <v>39625</v>
-      </c>
-      <c r="T10" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U10" s="9">
-        <v>181</v>
-      </c>
-      <c r="V10" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="H11" s="9">
-        <v>34</v>
-      </c>
-      <c r="I11" s="9">
-        <v>9</v>
-      </c>
-      <c r="J11" s="9">
-        <v>33</v>
-      </c>
-      <c r="K11" s="9">
-        <v>42</v>
-      </c>
-      <c r="L11" s="9">
-        <v>20</v>
-      </c>
-      <c r="M11" s="10">
-        <v>0.26470588235294118</v>
-      </c>
-      <c r="N11" s="10">
-        <v>0.97058823529411764</v>
-      </c>
-      <c r="O11" s="10">
-        <v>1.2352941176470589</v>
-      </c>
-      <c r="P11" s="10">
-        <v>0.37058823529411766</v>
-      </c>
-      <c r="Q11" s="10">
-        <v>0.58823529411764708</v>
-      </c>
-      <c r="R11" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S11" s="11">
-        <v>39555</v>
-      </c>
-      <c r="T11" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="U11" s="9">
-        <v>176</v>
-      </c>
-      <c r="V11" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0.27</v>
-      </c>
-      <c r="H12" s="9">
-        <v>32</v>
-      </c>
-      <c r="I12" s="9">
-        <v>11</v>
-      </c>
-      <c r="J12" s="9">
-        <v>32</v>
-      </c>
-      <c r="K12" s="9">
-        <v>43</v>
-      </c>
-      <c r="L12" s="9">
-        <v>16</v>
-      </c>
-      <c r="M12" s="10">
-        <v>0.34375</v>
-      </c>
-      <c r="N12" s="10">
-        <v>1</v>
-      </c>
-      <c r="O12" s="10">
-        <v>1.34375</v>
-      </c>
-      <c r="P12" s="10">
-        <v>0.36281250000000004</v>
-      </c>
-      <c r="Q12" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S12" s="11">
-        <v>39347</v>
-      </c>
-      <c r="T12" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="U12" s="9">
-        <v>170</v>
-      </c>
-      <c r="V12" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="e" vm="6">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="H13" s="9">
-        <v>29</v>
-      </c>
-      <c r="I13" s="9">
-        <v>19</v>
-      </c>
-      <c r="J13" s="9">
-        <v>16</v>
-      </c>
-      <c r="K13" s="9">
-        <v>35</v>
-      </c>
-      <c r="L13" s="9">
-        <v>6</v>
-      </c>
-      <c r="M13" s="10">
-        <v>0.65517241379310343</v>
-      </c>
-      <c r="N13" s="10">
-        <v>0.55172413793103448</v>
-      </c>
-      <c r="O13" s="10">
-        <v>1.2068965517241379</v>
-      </c>
-      <c r="P13" s="10">
-        <v>0.36206896551724138</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>0.20689655172413793</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S13" s="11">
-        <v>39398</v>
-      </c>
-      <c r="T13" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="U13" s="9">
-        <v>205</v>
-      </c>
-      <c r="V13" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="e" vm="5">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="H14" s="9">
-        <v>31</v>
-      </c>
-      <c r="I14" s="9">
-        <v>15</v>
-      </c>
-      <c r="J14" s="9">
-        <v>25</v>
-      </c>
-      <c r="K14" s="9">
-        <v>40</v>
-      </c>
-      <c r="L14" s="9">
-        <v>21</v>
-      </c>
-      <c r="M14" s="10">
-        <v>0.4838709677419355</v>
-      </c>
-      <c r="N14" s="10">
-        <v>0.80645161290322576</v>
-      </c>
-      <c r="O14" s="10">
-        <v>1.2903225806451613</v>
-      </c>
-      <c r="P14" s="10">
-        <v>0.3612903225806452</v>
-      </c>
-      <c r="Q14" s="10">
-        <v>0.67741935483870963</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S14" s="11">
-        <v>39567</v>
-      </c>
-      <c r="T14" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="U14" s="9">
-        <v>181</v>
-      </c>
-      <c r="V14" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="8">
         <v>0.3</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>32</v>
       </c>
-      <c r="I15" s="9">
-        <v>18</v>
-      </c>
-      <c r="J15" s="9">
-        <v>20</v>
-      </c>
-      <c r="K15" s="9">
-        <v>38</v>
-      </c>
-      <c r="L15" s="9">
-        <v>18</v>
-      </c>
-      <c r="M15" s="10">
-        <v>0.5625</v>
-      </c>
-      <c r="N15" s="10">
-        <v>0.625</v>
-      </c>
-      <c r="O15" s="10">
-        <v>1.1875</v>
-      </c>
-      <c r="P15" s="10">
-        <v>0.35625000000000001</v>
-      </c>
-      <c r="Q15" s="10">
-        <v>0.5625</v>
-      </c>
-      <c r="R15" s="10" t="s">
+      <c r="I15" s="8">
+        <v>19</v>
+      </c>
+      <c r="J15" s="8">
+        <v>21</v>
+      </c>
+      <c r="K15" s="8">
+        <v>40</v>
+      </c>
+      <c r="L15" s="8">
+        <v>21</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0.59375</v>
+      </c>
+      <c r="N15" s="9">
+        <v>0.65625</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1.25</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0.375</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0.65625</v>
+      </c>
+      <c r="R15" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="S15" s="11">
-        <v>39349</v>
-      </c>
-      <c r="T15" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="U15" s="9">
-        <v>216</v>
-      </c>
-      <c r="V15" s="9" t="s">
+      <c r="S15" s="10">
+        <v>39625</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="U15" s="8">
+        <v>181</v>
+      </c>
+      <c r="V15" s="8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -17278,131 +17280,131 @@
         <v>225</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="8">
+        <v>34</v>
+      </c>
+      <c r="I16" s="8">
+        <v>9</v>
+      </c>
+      <c r="J16" s="8">
+        <v>33</v>
+      </c>
+      <c r="K16" s="8">
+        <v>42</v>
+      </c>
+      <c r="L16" s="8">
+        <v>20</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="N16" s="9">
+        <v>0.97058823529411764</v>
+      </c>
+      <c r="O16" s="9">
+        <v>1.2352941176470589</v>
+      </c>
+      <c r="P16" s="9">
+        <v>0.37058823529411766</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0.58823529411764708</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S16" s="10">
+        <v>39555</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="U16" s="8">
+        <v>176</v>
+      </c>
+      <c r="V16" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="E17" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G17" s="8">
         <v>0.3</v>
       </c>
-      <c r="H16" s="9">
-        <v>36</v>
-      </c>
-      <c r="I16" s="9">
-        <v>19</v>
-      </c>
-      <c r="J16" s="9">
-        <v>23</v>
-      </c>
-      <c r="K16" s="9">
-        <v>42</v>
-      </c>
-      <c r="L16" s="9">
-        <v>55</v>
-      </c>
-      <c r="M16" s="10">
-        <v>0.52777777777777779</v>
-      </c>
-      <c r="N16" s="10">
-        <v>0.63888888888888884</v>
-      </c>
-      <c r="O16" s="10">
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="P16" s="10">
-        <v>0.35000000000000003</v>
-      </c>
-      <c r="Q16" s="10">
-        <v>1.5277777777777777</v>
-      </c>
-      <c r="R16" s="10" t="s">
+      <c r="H17" s="8">
+        <v>32</v>
+      </c>
+      <c r="I17" s="8">
+        <v>18</v>
+      </c>
+      <c r="J17" s="8">
+        <v>20</v>
+      </c>
+      <c r="K17" s="8">
+        <v>38</v>
+      </c>
+      <c r="L17" s="8">
+        <v>18</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0.5625</v>
+      </c>
+      <c r="N17" s="9">
+        <v>0.625</v>
+      </c>
+      <c r="O17" s="9">
+        <v>1.1875</v>
+      </c>
+      <c r="P17" s="9">
+        <v>0.35625000000000001</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0.5625</v>
+      </c>
+      <c r="R17" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="S16" s="11">
-        <v>39554</v>
-      </c>
-      <c r="T16" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="U16" s="9">
-        <v>159</v>
-      </c>
-      <c r="V16" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="H17" s="9">
-        <v>8</v>
-      </c>
-      <c r="I17" s="9">
-        <v>2</v>
-      </c>
-      <c r="J17" s="9">
-        <v>6</v>
-      </c>
-      <c r="K17" s="9">
-        <v>8</v>
-      </c>
-      <c r="L17" s="9">
-        <v>0</v>
-      </c>
-      <c r="M17" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="N17" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="O17" s="10">
-        <v>1</v>
-      </c>
-      <c r="P17" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="Q17" s="10">
-        <v>0</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S17" s="11">
-        <v>39698</v>
-      </c>
-      <c r="T17" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="U17" s="9">
-        <v>172</v>
-      </c>
-      <c r="V17" s="9" t="s">
+      <c r="S17" s="10">
+        <v>39349</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="U17" s="8">
+        <v>216</v>
+      </c>
+      <c r="V17" s="8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -17414,335 +17416,335 @@
         <v>225</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="D18" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="8">
+        <v>32</v>
+      </c>
+      <c r="I18" s="8">
+        <v>6</v>
+      </c>
+      <c r="J18" s="8">
         <v>27</v>
       </c>
-      <c r="G18" s="9">
+      <c r="K18" s="8">
+        <v>33</v>
+      </c>
+      <c r="L18" s="8">
+        <v>18</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.1875</v>
+      </c>
+      <c r="N18" s="9">
+        <v>0.84375</v>
+      </c>
+      <c r="O18" s="9">
+        <v>1.03125</v>
+      </c>
+      <c r="P18" s="9">
+        <v>0.30937500000000001</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>0.5625</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S18" s="10">
+        <v>39477</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="U18" s="8">
+        <v>165</v>
+      </c>
+      <c r="V18" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="e" vm="5">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="H19" s="8">
+        <v>32</v>
+      </c>
+      <c r="I19" s="8">
+        <v>11</v>
+      </c>
+      <c r="J19" s="8">
+        <v>32</v>
+      </c>
+      <c r="K19" s="8">
+        <v>43</v>
+      </c>
+      <c r="L19" s="8">
+        <v>16</v>
+      </c>
+      <c r="M19" s="9">
+        <v>0.34375</v>
+      </c>
+      <c r="N19" s="9">
+        <v>1</v>
+      </c>
+      <c r="O19" s="9">
+        <v>1.34375</v>
+      </c>
+      <c r="P19" s="9">
+        <v>0.36281250000000004</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S19" s="10">
+        <v>39347</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="U19" s="8">
+        <v>170</v>
+      </c>
+      <c r="V19" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="H20" s="8">
+        <v>20</v>
+      </c>
+      <c r="I20" s="8">
+        <v>4</v>
+      </c>
+      <c r="J20" s="8">
+        <v>22</v>
+      </c>
+      <c r="K20" s="8">
+        <v>26</v>
+      </c>
+      <c r="L20" s="8">
+        <v>10</v>
+      </c>
+      <c r="M20" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="N20" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O20" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="P20" s="9">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S20" s="10">
+        <v>39601</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="U20" s="8">
+        <v>165</v>
+      </c>
+      <c r="V20" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="H21" s="8">
+        <v>33</v>
+      </c>
+      <c r="I21" s="8">
+        <v>22</v>
+      </c>
+      <c r="J21" s="8">
+        <v>33</v>
+      </c>
+      <c r="K21" s="8">
+        <v>55</v>
+      </c>
+      <c r="L21" s="8">
+        <v>16</v>
+      </c>
+      <c r="M21" s="9">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N21" s="9">
+        <v>1</v>
+      </c>
+      <c r="O21" s="9">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="P21" s="9">
+        <v>0.5</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>0.48484848484848486</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S21" s="10">
+        <v>39548</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="U21" s="8">
+        <v>183</v>
+      </c>
+      <c r="V21" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="e" vm="3">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="8">
         <v>0.41</v>
       </c>
-      <c r="H18" s="9">
-        <v>20</v>
-      </c>
-      <c r="I18" s="9">
-        <v>5</v>
-      </c>
-      <c r="J18" s="9">
-        <v>12</v>
-      </c>
-      <c r="K18" s="9">
-        <v>17</v>
-      </c>
-      <c r="L18" s="9">
-        <v>28</v>
-      </c>
-      <c r="M18" s="10">
+      <c r="H22" s="8">
+        <v>16</v>
+      </c>
+      <c r="I22" s="8">
+        <v>4</v>
+      </c>
+      <c r="J22" s="8">
+        <v>14</v>
+      </c>
+      <c r="K22" s="8">
+        <v>18</v>
+      </c>
+      <c r="L22" s="8">
+        <v>4</v>
+      </c>
+      <c r="M22" s="9">
         <v>0.25</v>
       </c>
-      <c r="N18" s="10">
-        <v>0.6</v>
-      </c>
-      <c r="O18" s="10">
-        <v>0.85</v>
-      </c>
-      <c r="P18" s="10">
-        <v>0.34849999999999998</v>
-      </c>
-      <c r="Q18" s="10">
-        <v>1.4</v>
-      </c>
-      <c r="R18" s="10" t="s">
+      <c r="N22" s="9">
+        <v>0.875</v>
+      </c>
+      <c r="O22" s="9">
+        <v>1.125</v>
+      </c>
+      <c r="P22" s="9">
+        <v>0.46124999999999999</v>
+      </c>
+      <c r="Q22" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="R22" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="S18" s="11">
-        <v>39548</v>
-      </c>
-      <c r="T18" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="U18" s="9">
-        <v>185</v>
-      </c>
-      <c r="V18" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="e" vm="7">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G19" s="9">
-        <v>0.26</v>
-      </c>
-      <c r="H19" s="9">
-        <v>18</v>
-      </c>
-      <c r="I19" s="9">
-        <v>14</v>
-      </c>
-      <c r="J19" s="9">
-        <v>10</v>
-      </c>
-      <c r="K19" s="9">
-        <v>24</v>
-      </c>
-      <c r="L19" s="9">
-        <v>12</v>
-      </c>
-      <c r="M19" s="10">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="N19" s="10">
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="O19" s="10">
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="P19" s="10">
-        <v>0.34666666666666668</v>
-      </c>
-      <c r="Q19" s="10">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S19" s="11">
-        <v>39556</v>
-      </c>
-      <c r="T19" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="U19" s="9">
-        <v>185</v>
-      </c>
-      <c r="V19" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="H20" s="9">
-        <v>31</v>
-      </c>
-      <c r="I20" s="9">
-        <v>14</v>
-      </c>
-      <c r="J20" s="9">
-        <v>21</v>
-      </c>
-      <c r="K20" s="9">
-        <v>35</v>
-      </c>
-      <c r="L20" s="9">
-        <v>24</v>
-      </c>
-      <c r="M20" s="10">
-        <v>0.45161290322580644</v>
-      </c>
-      <c r="N20" s="10">
-        <v>0.67741935483870963</v>
-      </c>
-      <c r="O20" s="10">
-        <v>1.1290322580645162</v>
-      </c>
-      <c r="P20" s="10">
-        <v>0.33870967741935487</v>
-      </c>
-      <c r="Q20" s="10">
-        <v>0.77419354838709675</v>
-      </c>
-      <c r="R20" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S20" s="11">
-        <v>39445</v>
-      </c>
-      <c r="T20" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="U20" s="9">
-        <v>187</v>
-      </c>
-      <c r="V20" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="e" vm="1">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G21" s="9">
-        <v>0.26</v>
-      </c>
-      <c r="H21" s="9">
-        <v>20</v>
-      </c>
-      <c r="I21" s="9">
-        <v>4</v>
-      </c>
-      <c r="J21" s="9">
-        <v>22</v>
-      </c>
-      <c r="K21" s="9">
-        <v>26</v>
-      </c>
-      <c r="L21" s="9">
-        <v>10</v>
-      </c>
-      <c r="M21" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="N21" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O21" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="P21" s="10">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="Q21" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S21" s="11">
-        <v>39601</v>
-      </c>
-      <c r="T21" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="U21" s="9">
-        <v>165</v>
-      </c>
-      <c r="V21" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="e" vm="2">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G22" s="9">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="H22" s="9">
-        <v>20</v>
-      </c>
-      <c r="I22" s="9">
-        <v>7</v>
-      </c>
-      <c r="J22" s="9">
-        <v>15</v>
-      </c>
-      <c r="K22" s="9">
-        <v>22</v>
-      </c>
-      <c r="L22" s="9">
-        <v>31</v>
-      </c>
-      <c r="M22" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="N22" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="O22" s="10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P22" s="10">
-        <v>0.31900000000000001</v>
-      </c>
-      <c r="Q22" s="10">
-        <v>1.55</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S22" s="11">
-        <v>39342</v>
-      </c>
-      <c r="T22" s="9" t="s">
+      <c r="S22" s="10">
+        <v>39435</v>
+      </c>
+      <c r="T22" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="U22" s="9">
-        <v>187</v>
-      </c>
-      <c r="V22" s="9" t="s">
+      <c r="U22" s="8">
+        <v>170</v>
+      </c>
+      <c r="V22" s="8" t="s">
         <v>97</v>
       </c>
     </row>
@@ -17754,271 +17756,283 @@
         <v>225</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>123</v>
+        <v>150</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>122</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>9</v>
+        <v>88</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>0.3</v>
       </c>
-      <c r="H23" s="9">
-        <v>28</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="H23" s="8">
+        <v>32</v>
+      </c>
+      <c r="I23" s="8">
+        <v>10</v>
+      </c>
+      <c r="J23" s="8">
+        <v>23</v>
+      </c>
+      <c r="K23" s="8">
+        <v>33</v>
+      </c>
+      <c r="L23" s="8">
         <v>8</v>
       </c>
-      <c r="J23" s="9">
-        <v>21</v>
-      </c>
-      <c r="K23" s="9">
+      <c r="M23" s="9">
+        <v>0.3125</v>
+      </c>
+      <c r="N23" s="9">
+        <v>0.71875</v>
+      </c>
+      <c r="O23" s="9">
+        <v>1.03125</v>
+      </c>
+      <c r="P23" s="9">
+        <v>0.30937500000000001</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S23" s="10">
+        <v>39677</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="U23" s="8">
+        <v>170</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="e" vm="6">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="7" t="s">
         <v>29</v>
-      </c>
-      <c r="L23" s="9">
-        <v>32</v>
-      </c>
-      <c r="M23" s="10">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="N23" s="10">
-        <v>0.75</v>
-      </c>
-      <c r="O23" s="10">
-        <v>1.0357142857142858</v>
-      </c>
-      <c r="P23" s="10">
-        <v>0.31071428571428572</v>
-      </c>
-      <c r="Q23" s="10">
-        <v>1.1428571428571428</v>
-      </c>
-      <c r="R23" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S23" s="11">
-        <v>39621</v>
-      </c>
-      <c r="T23" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="U23" s="9">
-        <v>194</v>
-      </c>
-      <c r="V23" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>3</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>0.3</v>
       </c>
-      <c r="H24" s="9">
-        <v>31</v>
-      </c>
-      <c r="I24" s="9">
+      <c r="H24" s="8">
+        <v>29</v>
+      </c>
+      <c r="I24" s="8">
+        <v>19</v>
+      </c>
+      <c r="J24" s="8">
+        <v>16</v>
+      </c>
+      <c r="K24" s="8">
+        <v>35</v>
+      </c>
+      <c r="L24" s="8">
+        <v>6</v>
+      </c>
+      <c r="M24" s="9">
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="N24" s="9">
+        <v>0.55172413793103448</v>
+      </c>
+      <c r="O24" s="9">
+        <v>1.2068965517241379</v>
+      </c>
+      <c r="P24" s="9">
+        <v>0.36206896551724138</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>0.20689655172413793</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="S24" s="10">
+        <v>39398</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="U24" s="8">
+        <v>205</v>
+      </c>
+      <c r="V24" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="e" vm="1">
+        <v>#VALUE!</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.78</v>
+      </c>
+      <c r="H25" s="8">
+        <v>25</v>
+      </c>
+      <c r="I25" s="8">
+        <v>6</v>
+      </c>
+      <c r="J25" s="8">
         <v>18</v>
       </c>
-      <c r="J24" s="9">
-        <v>14</v>
-      </c>
-      <c r="K24" s="9">
-        <v>32</v>
-      </c>
-      <c r="L24" s="9">
-        <v>26</v>
-      </c>
-      <c r="M24" s="10">
-        <v>0.58064516129032262</v>
-      </c>
-      <c r="N24" s="10">
-        <v>0.45161290322580644</v>
-      </c>
-      <c r="O24" s="10">
-        <v>1.032258064516129</v>
-      </c>
-      <c r="P24" s="10">
-        <v>0.30967741935483867</v>
-      </c>
-      <c r="Q24" s="10">
-        <v>0.83870967741935487</v>
-      </c>
-      <c r="R24" s="10" t="s">
+      <c r="K25" s="8">
+        <v>24</v>
+      </c>
+      <c r="L25" s="8">
+        <v>4</v>
+      </c>
+      <c r="M25" s="9">
+        <v>0.24</v>
+      </c>
+      <c r="N25" s="9">
+        <v>0.72</v>
+      </c>
+      <c r="O25" s="9">
+        <v>0.96</v>
+      </c>
+      <c r="P25" s="9">
+        <v>0.74880000000000002</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="R25" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="S24" s="11">
-        <v>39536</v>
-      </c>
-      <c r="T24" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="U24" s="9">
-        <v>227</v>
-      </c>
-      <c r="V24" s="9" t="s">
+      <c r="S25" s="10">
+        <v>39354</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="U25" s="8">
+        <v>181</v>
+      </c>
+      <c r="V25" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="e" vm="3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="D25" s="9" t="s">
+      <c r="B26" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G25" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="H25" s="9">
-        <v>32</v>
-      </c>
-      <c r="I25" s="9">
+      <c r="E26" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J25" s="9">
-        <v>27</v>
-      </c>
-      <c r="K25" s="9">
-        <v>33</v>
-      </c>
-      <c r="L25" s="9">
-        <v>18</v>
-      </c>
-      <c r="M25" s="10">
-        <v>0.1875</v>
-      </c>
-      <c r="N25" s="10">
-        <v>0.84375</v>
-      </c>
-      <c r="O25" s="10">
-        <v>1.03125</v>
-      </c>
-      <c r="P25" s="10">
-        <v>0.30937500000000001</v>
-      </c>
-      <c r="Q25" s="10">
-        <v>0.5625</v>
-      </c>
-      <c r="R25" s="10" t="s">
+      <c r="G26" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="H26" s="8">
+        <v>8</v>
+      </c>
+      <c r="I26" s="8">
+        <v>2</v>
+      </c>
+      <c r="J26" s="8">
+        <v>6</v>
+      </c>
+      <c r="K26" s="8">
+        <v>8</v>
+      </c>
+      <c r="L26" s="8">
+        <v>0</v>
+      </c>
+      <c r="M26" s="9">
+        <v>0.25</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0.75</v>
+      </c>
+      <c r="O26" s="9">
+        <v>1</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0.35</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>0</v>
+      </c>
+      <c r="R26" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="S25" s="11">
-        <v>39477</v>
-      </c>
-      <c r="T25" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="U25" s="9">
-        <v>165</v>
-      </c>
-      <c r="V25" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="e" vm="3">
-        <v>#VALUE!</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G26" s="9">
-        <v>0.3</v>
-      </c>
-      <c r="H26" s="9">
-        <v>32</v>
-      </c>
-      <c r="I26" s="9">
-        <v>10</v>
-      </c>
-      <c r="J26" s="9">
-        <v>23</v>
-      </c>
-      <c r="K26" s="9">
-        <v>33</v>
-      </c>
-      <c r="L26" s="9">
-        <v>8</v>
-      </c>
-      <c r="M26" s="10">
-        <v>0.3125</v>
-      </c>
-      <c r="N26" s="10">
-        <v>0.71875</v>
-      </c>
-      <c r="O26" s="10">
-        <v>1.03125</v>
-      </c>
-      <c r="P26" s="10">
-        <v>0.30937500000000001</v>
-      </c>
-      <c r="Q26" s="10">
-        <v>0.25</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="S26" s="11">
-        <v>39677</v>
-      </c>
-      <c r="T26" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="U26" s="9">
-        <v>170</v>
-      </c>
-      <c r="V26" s="9" t="s">
+      <c r="S26" s="10">
+        <v>39698</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="U26" s="8">
+        <v>172</v>
+      </c>
+      <c r="V26" s="8" t="s">
         <v>97</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2:H26">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M2:M26">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -18079,18 +18093,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H26">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -18124,7 +18126,7 @@
       <c r="A4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4">
         <v>1</v>
       </c>
     </row>
@@ -18132,7 +18134,7 @@
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5">
         <v>1</v>
       </c>
     </row>
@@ -18140,7 +18142,7 @@
       <c r="A6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6">
         <v>2</v>
       </c>
     </row>
@@ -18148,7 +18150,7 @@
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7">
         <v>1</v>
       </c>
     </row>
@@ -18156,7 +18158,7 @@
       <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>7</v>
       </c>
     </row>
@@ -18164,7 +18166,7 @@
       <c r="A9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9">
         <v>1</v>
       </c>
     </row>
@@ -18172,7 +18174,7 @@
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>1</v>
       </c>
     </row>
@@ -18180,7 +18182,7 @@
       <c r="A11" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>4</v>
       </c>
     </row>
@@ -18188,7 +18190,7 @@
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12">
         <v>2</v>
       </c>
     </row>
@@ -18196,7 +18198,7 @@
       <c r="A13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13">
         <v>5</v>
       </c>
     </row>
@@ -18204,7 +18206,7 @@
       <c r="A14" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14">
         <v>25</v>
       </c>
     </row>
@@ -18263,11 +18265,10 @@
       <c r="A5" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8">
+      <c r="C5">
         <v>0.3</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5">
         <v>0.3</v>
       </c>
     </row>
@@ -18275,11 +18276,10 @@
       <c r="A6" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8">
+      <c r="C6">
         <v>0.41</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6">
         <v>0.41</v>
       </c>
     </row>
@@ -18287,11 +18287,10 @@
       <c r="A7" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8">
+      <c r="C7">
         <v>0.26</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7">
         <v>0.26</v>
       </c>
     </row>
@@ -18299,11 +18298,10 @@
       <c r="A8" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8">
         <v>0.26</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8">
+      <c r="D8">
         <v>0.26</v>
       </c>
     </row>
@@ -18311,11 +18309,10 @@
       <c r="A9" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8">
+      <c r="C9">
         <v>0.3</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9">
         <v>0.3</v>
       </c>
     </row>
@@ -18323,11 +18320,10 @@
       <c r="A10" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10">
         <v>0.3</v>
       </c>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8">
+      <c r="D10">
         <v>0.3</v>
       </c>
     </row>
@@ -18335,11 +18331,10 @@
       <c r="A11" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11">
         <v>0.3</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8">
+      <c r="D11">
         <v>0.3</v>
       </c>
     </row>
@@ -18347,11 +18342,10 @@
       <c r="A12" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8">
+      <c r="C12">
         <v>0.3</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12">
         <v>0.3</v>
       </c>
     </row>
@@ -18359,11 +18353,10 @@
       <c r="A13" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8">
+      <c r="C13">
         <v>0.41</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13">
         <v>0.41</v>
       </c>
     </row>
@@ -18371,11 +18364,10 @@
       <c r="A14" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8">
+      <c r="C14">
         <v>0.78</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14">
         <v>0.78</v>
       </c>
     </row>
@@ -18383,11 +18375,10 @@
       <c r="A15" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8">
+      <c r="C15">
         <v>0.3</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15">
         <v>0.3</v>
       </c>
     </row>
@@ -18395,11 +18386,10 @@
       <c r="A16" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8">
+      <c r="C16">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -18407,11 +18397,10 @@
       <c r="A17" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8">
+      <c r="C17">
         <v>0.27</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17">
         <v>0.27</v>
       </c>
     </row>
@@ -18419,11 +18408,10 @@
       <c r="A18" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8">
+      <c r="C18">
         <v>0.26</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18">
         <v>0.26</v>
       </c>
     </row>
@@ -18431,11 +18419,10 @@
       <c r="A19" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8">
+      <c r="C19">
         <v>0.3</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19">
         <v>0.3</v>
       </c>
     </row>
@@ -18443,11 +18430,10 @@
       <c r="A20" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8">
+      <c r="C20">
         <v>0.26</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20">
         <v>0.26</v>
       </c>
     </row>
@@ -18455,11 +18441,10 @@
       <c r="A21" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8">
+      <c r="C21">
         <v>0.3</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21">
         <v>0.3</v>
       </c>
     </row>
@@ -18467,11 +18452,10 @@
       <c r="A22" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8">
+      <c r="C22">
         <v>0.33</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22">
         <v>0.33</v>
       </c>
     </row>
@@ -18479,11 +18463,10 @@
       <c r="A23" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8">
+      <c r="C23">
         <v>0.3</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23">
         <v>0.3</v>
       </c>
     </row>
@@ -18491,11 +18474,10 @@
       <c r="A24" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8">
+      <c r="C24">
         <v>0.3</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24">
         <v>0.3</v>
       </c>
     </row>
@@ -18503,11 +18485,10 @@
       <c r="A25" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B25" s="8">
+      <c r="B25">
         <v>0.3</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8">
+      <c r="D25">
         <v>0.3</v>
       </c>
     </row>
@@ -18515,11 +18496,10 @@
       <c r="A26" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8">
+      <c r="C26">
         <v>0.3</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26">
         <v>0.3</v>
       </c>
     </row>
@@ -18527,11 +18507,10 @@
       <c r="A27" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8">
+      <c r="C27">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27">
         <v>0.28999999999999998</v>
       </c>
     </row>
@@ -18539,11 +18518,10 @@
       <c r="A28" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8">
+      <c r="C28">
         <v>0.35</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28">
         <v>0.35</v>
       </c>
     </row>
@@ -18551,11 +18529,10 @@
       <c r="A29" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8">
+      <c r="C29">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -18563,13 +18540,13 @@
       <c r="A30" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B30" s="8">
+      <c r="B30">
         <v>1.1600000000000001</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30">
         <v>6.8899999999999988</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30">
         <v>8.0499999999999989</v>
       </c>
     </row>
@@ -18805,8 +18782,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C2:C22">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="B23:B26">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -18817,8 +18794,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23:B26">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="C2:C22">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/Living_Course_Modules/Module_1_Incoming_NHL_Prospects/Data/elite_prospects_dataset.xlsx
+++ b/Living_Course_Modules/Module_1_Incoming_NHL_Prospects/Data/elite_prospects_dataset.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data_Punk_Media_GH\data_punk_media\Living_Course_Modules\Module_1_Incoming_NHL_Prospects\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{892416AA-1026-4E96-8809-A4B19AEF1E81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51852108-4CBC-4A55-AEF1-4EDA1A4E7061}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" firstSheet="1" activeTab="1" xr2:uid="{94354772-504C-4AA9-9298-D1FB12EF11CB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" firstSheet="1" activeTab="5" xr2:uid="{94354772-504C-4AA9-9298-D1FB12EF11CB}"/>
   </bookViews>
   <sheets>
     <sheet name="TOP_100_PROSPECTS" sheetId="3" r:id="rId1"/>
@@ -8019,9 +8019,30 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{E7CC33C3-6EAF-44EF-825B-0AAFA3D5B2FE}" name="Table10" displayName="Table10" ref="A1:V26" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36" tableBorderDxfId="35">
-  <autoFilter ref="A1:V26" xr:uid="{E7CC33C3-6EAF-44EF-825B-0AAFA3D5B2FE}"/>
+  <autoFilter ref="A1:V26" xr:uid="{E7CC33C3-6EAF-44EF-825B-0AAFA3D5B2FE}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Caleb Malhotra "/>
+        <filter val="Gavin McKenna "/>
+        <filter val="Ivar Stenberg "/>
+        <filter val="J.P. Hurlbert "/>
+        <filter val="Landon Hafele "/>
+        <filter val="Lavr Gashilov "/>
+        <filter val="Marcus Nordmark "/>
+        <filter val="Noah Kosick "/>
+        <filter val="Riley Boychuk "/>
+        <filter val="Wyatt Cullen "/>
+        <filter val="Yegor Shilov "/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="F"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:V26">
-    <sortCondition descending="1" ref="Q1:Q26"/>
+    <sortCondition descending="1" ref="P1:P26"/>
   </sortState>
   <tableColumns count="22">
     <tableColumn id="1" xr3:uid="{496997B9-08E9-4E06-B51B-A348408F335D}" name="FLAG" dataDxfId="34"/>
@@ -16229,8 +16250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3C762C7-54FD-4499-BDE6-B3581A04F5D8}">
   <dimension ref="A1:V26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16241,11 +16262,13 @@
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.5546875" customWidth="1"/>
+    <col min="9" max="12" width="0" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="12.44140625" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" customWidth="1"/>
     <col min="16" max="16" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.6640625" customWidth="1"/>
+    <col min="18" max="18" width="17.6640625" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9.33203125" customWidth="1"/>
     <col min="21" max="21" width="9.6640625" customWidth="1"/>
@@ -16328,61 +16351,61 @@
         <v>227</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G2" s="8">
-        <v>0.26</v>
+        <v>0.78</v>
       </c>
       <c r="H2" s="8">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I2" s="8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J2" s="8">
         <v>18</v>
       </c>
       <c r="K2" s="8">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="8">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="M2" s="9">
-        <v>0.41176470588235292</v>
+        <v>0.24</v>
       </c>
       <c r="N2" s="9">
-        <v>1.0588235294117647</v>
+        <v>0.72</v>
       </c>
       <c r="O2" s="9">
-        <v>1.4705882352941178</v>
+        <v>0.96</v>
       </c>
       <c r="P2" s="9">
-        <v>0.38235294117647062</v>
+        <v>0.74880000000000002</v>
       </c>
       <c r="Q2" s="9">
-        <v>2.2352941176470589</v>
+        <v>0.16</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S2" s="10">
-        <v>39571</v>
+        <v>39354</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U2" s="8">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="V2" s="8" t="s">
         <v>97</v>
@@ -16396,64 +16419,64 @@
         <v>226</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="G3" s="8">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="H3" s="8">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="I3" s="8">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="J3" s="8">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="K3" s="8">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="L3" s="8">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M3" s="9">
-        <v>0.35</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N3" s="9">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="O3" s="9">
-        <v>1.1000000000000001</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="P3" s="9">
-        <v>0.31900000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="Q3" s="9">
-        <v>1.55</v>
+        <v>0.48484848484848486</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S3" s="10">
-        <v>39342</v>
+        <v>39548</v>
       </c>
       <c r="T3" s="8" t="s">
         <v>104</v>
       </c>
       <c r="U3" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="V3" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
@@ -16464,67 +16487,67 @@
         <v>225</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.41</v>
+      </c>
+      <c r="H4" s="8">
+        <v>16</v>
+      </c>
+      <c r="I4" s="8">
         <v>4</v>
       </c>
-      <c r="G4" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="H4" s="8">
-        <v>36</v>
-      </c>
-      <c r="I4" s="8">
-        <v>19</v>
-      </c>
       <c r="J4" s="8">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K4" s="8">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="L4" s="8">
-        <v>55</v>
+        <v>4</v>
       </c>
       <c r="M4" s="9">
-        <v>0.52777777777777779</v>
+        <v>0.25</v>
       </c>
       <c r="N4" s="9">
-        <v>0.63888888888888884</v>
+        <v>0.875</v>
       </c>
       <c r="O4" s="9">
-        <v>1.1666666666666667</v>
+        <v>1.125</v>
       </c>
       <c r="P4" s="9">
-        <v>0.35000000000000003</v>
+        <v>0.46124999999999999</v>
       </c>
       <c r="Q4" s="9">
-        <v>1.5277777777777777</v>
+        <v>0.25</v>
       </c>
       <c r="R4" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S4" s="10">
-        <v>39554</v>
+        <v>39435</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="U4" s="8">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="V4" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
@@ -16532,58 +16555,58 @@
         <v>225</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>190</v>
+        <v>134</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G5" s="8">
-        <v>0.41</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H5" s="8">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="I5" s="8">
+        <v>8</v>
+      </c>
+      <c r="J5" s="8">
         <v>5</v>
       </c>
-      <c r="J5" s="8">
-        <v>12</v>
-      </c>
       <c r="K5" s="8">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="L5" s="8">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="M5" s="9">
-        <v>0.25</v>
+        <v>0.88888888888888884</v>
       </c>
       <c r="N5" s="9">
-        <v>0.6</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O5" s="9">
-        <v>0.85</v>
+        <v>1.4444444444444444</v>
       </c>
       <c r="P5" s="9">
-        <v>0.34849999999999998</v>
+        <v>0.41888888888888887</v>
       </c>
       <c r="Q5" s="9">
-        <v>1.4</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R5" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S5" s="10">
-        <v>39548</v>
+        <v>39662</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="U5" s="8">
         <v>185</v>
@@ -16600,285 +16623,285 @@
         <v>225</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G6" s="8">
         <v>0.3</v>
       </c>
       <c r="H6" s="8">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I6" s="8">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="J6" s="8">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="K6" s="8">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="L6" s="8">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M6" s="9">
-        <v>0.2857142857142857</v>
+        <v>0.53125</v>
       </c>
       <c r="N6" s="9">
-        <v>0.75</v>
+        <v>0.84375</v>
       </c>
       <c r="O6" s="9">
-        <v>1.0357142857142858</v>
+        <v>1.375</v>
       </c>
       <c r="P6" s="9">
-        <v>0.31071428571428572</v>
+        <v>0.41249999999999998</v>
       </c>
       <c r="Q6" s="9">
-        <v>1.1428571428571428</v>
+        <v>0.6875</v>
       </c>
       <c r="R6" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S6" s="10">
-        <v>39621</v>
+        <v>39600</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>101</v>
       </c>
       <c r="U6" s="8">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="V6" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="e" vm="1">
+    <row r="7" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="e" vm="4">
         <v>#VALUE!</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>130</v>
+        <v>202</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="G7" s="8">
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
       <c r="H7" s="8">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I7" s="8">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J7" s="8">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="K7" s="8">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="L7" s="8">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M7" s="9">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.38500000000000006</v>
+      </c>
+      <c r="Q7" s="9">
         <v>0.66666666666666663</v>
-      </c>
-      <c r="N7" s="9">
-        <v>0.77777777777777779</v>
-      </c>
-      <c r="O7" s="9">
-        <v>1.4444444444444444</v>
-      </c>
-      <c r="P7" s="9">
-        <v>0.37555555555555559</v>
-      </c>
-      <c r="Q7" s="9">
-        <v>1</v>
       </c>
       <c r="R7" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S7" s="10">
-        <v>39614</v>
+        <v>39672</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="U7" s="8">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="V7" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="e" vm="3">
+      <c r="A8" s="7" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>125</v>
+        <v>213</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" s="8">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="H8" s="8">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I8" s="8">
+        <v>7</v>
+      </c>
+      <c r="J8" s="8">
         <v>18</v>
       </c>
-      <c r="J8" s="8">
-        <v>14</v>
-      </c>
       <c r="K8" s="8">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="L8" s="8">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="M8" s="9">
-        <v>0.58064516129032262</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="N8" s="9">
-        <v>0.45161290322580644</v>
+        <v>1.0588235294117647</v>
       </c>
       <c r="O8" s="9">
-        <v>1.032258064516129</v>
+        <v>1.4705882352941178</v>
       </c>
       <c r="P8" s="9">
-        <v>0.30967741935483867</v>
+        <v>0.38235294117647062</v>
       </c>
       <c r="Q8" s="9">
-        <v>0.83870967741935487</v>
+        <v>2.2352941176470589</v>
       </c>
       <c r="R8" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S8" s="10">
-        <v>39536</v>
+        <v>39571</v>
       </c>
       <c r="T8" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="U8" s="8">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="V8" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="e" vm="2">
+    <row r="9" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>164</v>
+        <v>130</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G9" s="8">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
       <c r="H9" s="8">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="I9" s="8">
+        <v>12</v>
+      </c>
+      <c r="J9" s="8">
         <v>14</v>
       </c>
-      <c r="J9" s="8">
-        <v>21</v>
-      </c>
       <c r="K9" s="8">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="L9" s="8">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="M9" s="9">
-        <v>0.45161290322580644</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="N9" s="9">
-        <v>0.67741935483870963</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="O9" s="9">
-        <v>1.1290322580645162</v>
+        <v>1.4444444444444444</v>
       </c>
       <c r="P9" s="9">
-        <v>0.33870967741935487</v>
+        <v>0.37555555555555559</v>
       </c>
       <c r="Q9" s="9">
-        <v>0.77419354838709675</v>
+        <v>1</v>
       </c>
       <c r="R9" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S9" s="10">
-        <v>39445</v>
+        <v>39614</v>
       </c>
       <c r="T9" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="U9" s="8">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="V9" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="e" vm="3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>135</v>
+        <v>188</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>4</v>
@@ -16890,335 +16913,335 @@
         <v>32</v>
       </c>
       <c r="I10" s="8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J10" s="8">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K10" s="8">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="L10" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M10" s="9">
-        <v>0.53125</v>
+        <v>0.59375</v>
       </c>
       <c r="N10" s="9">
-        <v>0.84375</v>
+        <v>0.65625</v>
       </c>
       <c r="O10" s="9">
-        <v>1.375</v>
+        <v>1.25</v>
       </c>
       <c r="P10" s="9">
-        <v>0.41249999999999998</v>
+        <v>0.375</v>
       </c>
       <c r="Q10" s="9">
-        <v>0.6875</v>
+        <v>0.65625</v>
       </c>
       <c r="R10" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S10" s="10">
-        <v>39600</v>
+        <v>39625</v>
       </c>
       <c r="T10" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="U10" s="8">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="V10" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="e" vm="5">
+    <row r="11" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G11" s="8">
-        <v>0.28000000000000003</v>
+        <v>0.3</v>
       </c>
       <c r="H11" s="8">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="I11" s="8">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J11" s="8">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="K11" s="8">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L11" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M11" s="9">
-        <v>0.4838709677419355</v>
+        <v>0.26470588235294118</v>
       </c>
       <c r="N11" s="9">
-        <v>0.80645161290322576</v>
+        <v>0.97058823529411764</v>
       </c>
       <c r="O11" s="9">
-        <v>1.2903225806451613</v>
+        <v>1.2352941176470589</v>
       </c>
       <c r="P11" s="9">
-        <v>0.3612903225806452</v>
+        <v>0.37058823529411766</v>
       </c>
       <c r="Q11" s="9">
-        <v>0.67741935483870963</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="R11" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S11" s="10">
-        <v>39567</v>
+        <v>39555</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="U11" s="8">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="V11" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="e" vm="3">
+      <c r="A12" s="7" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="G12" s="8">
-        <v>0.28999999999999998</v>
+        <v>0.27</v>
       </c>
       <c r="H12" s="8">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="I12" s="8">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J12" s="8">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="K12" s="8">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="L12" s="8">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="M12" s="9">
-        <v>0.88888888888888884</v>
+        <v>0.34375</v>
       </c>
       <c r="N12" s="9">
-        <v>0.55555555555555558</v>
+        <v>1</v>
       </c>
       <c r="O12" s="9">
-        <v>1.4444444444444444</v>
+        <v>1.34375</v>
       </c>
       <c r="P12" s="9">
-        <v>0.41888888888888887</v>
+        <v>0.36281250000000004</v>
       </c>
       <c r="Q12" s="9">
-        <v>0.66666666666666663</v>
+        <v>0.5</v>
       </c>
       <c r="R12" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S12" s="10">
-        <v>39662</v>
+        <v>39347</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="U12" s="8">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="V12" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="e" vm="4">
+    <row r="13" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="e" vm="6">
         <v>#VALUE!</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="G13" s="8">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="H13" s="8">
+        <v>29</v>
+      </c>
+      <c r="I13" s="8">
+        <v>19</v>
+      </c>
+      <c r="J13" s="8">
+        <v>16</v>
+      </c>
+      <c r="K13" s="8">
+        <v>35</v>
+      </c>
+      <c r="L13" s="8">
         <v>6</v>
       </c>
-      <c r="I13" s="8">
-        <v>5</v>
-      </c>
-      <c r="J13" s="8">
-        <v>2</v>
-      </c>
-      <c r="K13" s="8">
-        <v>7</v>
-      </c>
-      <c r="L13" s="8">
-        <v>4</v>
-      </c>
       <c r="M13" s="9">
-        <v>0.83333333333333337</v>
+        <v>0.65517241379310343</v>
       </c>
       <c r="N13" s="9">
-        <v>0.33333333333333331</v>
+        <v>0.55172413793103448</v>
       </c>
       <c r="O13" s="9">
-        <v>1.1666666666666667</v>
+        <v>1.2068965517241379</v>
       </c>
       <c r="P13" s="9">
-        <v>0.38500000000000006</v>
+        <v>0.36206896551724138</v>
       </c>
       <c r="Q13" s="9">
-        <v>0.66666666666666663</v>
+        <v>0.20689655172413793</v>
       </c>
       <c r="R13" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S13" s="10">
-        <v>39672</v>
+        <v>39398</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="U13" s="8">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="V13" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="e" vm="7">
+      <c r="A14" s="7" t="e" vm="5">
         <v>#VALUE!</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G14" s="8">
-        <v>0.26</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H14" s="8">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="I14" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J14" s="8">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K14" s="8">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="L14" s="8">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="M14" s="9">
-        <v>0.77777777777777779</v>
+        <v>0.4838709677419355</v>
       </c>
       <c r="N14" s="9">
-        <v>0.55555555555555558</v>
+        <v>0.80645161290322576</v>
       </c>
       <c r="O14" s="9">
-        <v>1.3333333333333333</v>
+        <v>1.2903225806451613</v>
       </c>
       <c r="P14" s="9">
-        <v>0.34666666666666668</v>
+        <v>0.3612903225806452</v>
       </c>
       <c r="Q14" s="9">
-        <v>0.66666666666666663</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="R14" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S14" s="10">
-        <v>39556</v>
+        <v>39567</v>
       </c>
       <c r="T14" s="8" t="s">
         <v>96</v>
       </c>
       <c r="U14" s="8">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="V14" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="e" vm="2">
+    <row r="15" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>4</v>
@@ -17230,49 +17253,49 @@
         <v>32</v>
       </c>
       <c r="I15" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="8">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L15" s="8">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="M15" s="9">
-        <v>0.59375</v>
+        <v>0.5625</v>
       </c>
       <c r="N15" s="9">
-        <v>0.65625</v>
+        <v>0.625</v>
       </c>
       <c r="O15" s="9">
-        <v>1.25</v>
+        <v>1.1875</v>
       </c>
       <c r="P15" s="9">
-        <v>0.375</v>
+        <v>0.35625000000000001</v>
       </c>
       <c r="Q15" s="9">
-        <v>0.65625</v>
+        <v>0.5625</v>
       </c>
       <c r="R15" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S15" s="10">
-        <v>39625</v>
+        <v>39349</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U15" s="8">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="V15" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
@@ -17280,135 +17303,135 @@
         <v>225</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="G16" s="8">
         <v>0.3</v>
       </c>
       <c r="H16" s="8">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I16" s="8">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="J16" s="8">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="K16" s="8">
         <v>42</v>
       </c>
       <c r="L16" s="8">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M16" s="9">
-        <v>0.26470588235294118</v>
+        <v>0.52777777777777779</v>
       </c>
       <c r="N16" s="9">
-        <v>0.97058823529411764</v>
+        <v>0.63888888888888884</v>
       </c>
       <c r="O16" s="9">
-        <v>1.2352941176470589</v>
+        <v>1.1666666666666667</v>
       </c>
       <c r="P16" s="9">
-        <v>0.37058823529411766</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="Q16" s="9">
-        <v>0.58823529411764708</v>
+        <v>1.5277777777777777</v>
       </c>
       <c r="R16" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S16" s="10">
-        <v>39555</v>
+        <v>39554</v>
       </c>
       <c r="T16" s="8" t="s">
         <v>102</v>
       </c>
       <c r="U16" s="8">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="V16" s="8" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="e" vm="3">
+      <c r="A17" s="7" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>136</v>
+        <v>195</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G17" s="8">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="H17" s="8">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I17" s="8">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="J17" s="8">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="K17" s="8">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="L17" s="8">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="M17" s="9">
-        <v>0.5625</v>
+        <v>0.25</v>
       </c>
       <c r="N17" s="9">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="O17" s="9">
-        <v>1.1875</v>
+        <v>1</v>
       </c>
       <c r="P17" s="9">
-        <v>0.35625000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="Q17" s="9">
-        <v>0.5625</v>
+        <v>0</v>
       </c>
       <c r="R17" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S17" s="10">
-        <v>39349</v>
+        <v>39698</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="U17" s="8">
-        <v>216</v>
+        <v>172</v>
       </c>
       <c r="V17" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
@@ -17416,339 +17439,339 @@
         <v>225</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="G18" s="8">
-        <v>0.3</v>
+        <v>0.41</v>
       </c>
       <c r="H18" s="8">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I18" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J18" s="8">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="K18" s="8">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="L18" s="8">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="M18" s="9">
-        <v>0.1875</v>
+        <v>0.25</v>
       </c>
       <c r="N18" s="9">
-        <v>0.84375</v>
+        <v>0.6</v>
       </c>
       <c r="O18" s="9">
-        <v>1.03125</v>
+        <v>0.85</v>
       </c>
       <c r="P18" s="9">
-        <v>0.30937500000000001</v>
+        <v>0.34849999999999998</v>
       </c>
       <c r="Q18" s="9">
-        <v>0.5625</v>
+        <v>1.4</v>
       </c>
       <c r="R18" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S18" s="10">
-        <v>39477</v>
+        <v>39548</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="U18" s="8">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="V18" s="8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A19" s="7" t="e" vm="5">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="e" vm="7">
         <v>#VALUE!</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="G19" s="8">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="H19" s="8">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="I19" s="8">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J19" s="8">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="K19" s="8">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="L19" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="M19" s="9">
-        <v>0.34375</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="N19" s="9">
-        <v>1</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="O19" s="9">
-        <v>1.34375</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="P19" s="9">
-        <v>0.36281250000000004</v>
+        <v>0.34666666666666668</v>
       </c>
       <c r="Q19" s="9">
-        <v>0.5</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="R19" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S19" s="10">
-        <v>39347</v>
+        <v>39556</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="U19" s="8">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="V19" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="e" vm="1">
+    <row r="20" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>123</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G20" s="8">
-        <v>0.26</v>
+        <v>0.3</v>
       </c>
       <c r="H20" s="8">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I20" s="8">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="J20" s="8">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K20" s="8">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="L20" s="8">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M20" s="9">
-        <v>0.2</v>
+        <v>0.45161290322580644</v>
       </c>
       <c r="N20" s="9">
-        <v>1.1000000000000001</v>
+        <v>0.67741935483870963</v>
       </c>
       <c r="O20" s="9">
-        <v>1.3</v>
+        <v>1.1290322580645162</v>
       </c>
       <c r="P20" s="9">
-        <v>0.33800000000000002</v>
+        <v>0.33870967741935487</v>
       </c>
       <c r="Q20" s="9">
-        <v>0.5</v>
+        <v>0.77419354838709675</v>
       </c>
       <c r="R20" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S20" s="10">
-        <v>39601</v>
+        <v>39445</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U20" s="8">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="V20" s="8" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="e" vm="2">
+    <row r="21" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="e" vm="1">
         <v>#VALUE!</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="H21" s="8">
         <v>20</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="I21" s="8">
+        <v>4</v>
+      </c>
+      <c r="J21" s="8">
+        <v>22</v>
+      </c>
+      <c r="K21" s="8">
+        <v>26</v>
+      </c>
+      <c r="L21" s="8">
         <v>10</v>
       </c>
-      <c r="G21" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="H21" s="8">
-        <v>33</v>
-      </c>
-      <c r="I21" s="8">
-        <v>22</v>
-      </c>
-      <c r="J21" s="8">
-        <v>33</v>
-      </c>
-      <c r="K21" s="8">
-        <v>55</v>
-      </c>
-      <c r="L21" s="8">
-        <v>16</v>
-      </c>
       <c r="M21" s="9">
-        <v>0.66666666666666663</v>
+        <v>0.2</v>
       </c>
       <c r="N21" s="9">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="O21" s="9">
-        <v>1.6666666666666667</v>
+        <v>1.3</v>
       </c>
       <c r="P21" s="9">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="Q21" s="9">
         <v>0.5</v>
-      </c>
-      <c r="Q21" s="9">
-        <v>0.48484848484848486</v>
       </c>
       <c r="R21" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S21" s="10">
-        <v>39548</v>
+        <v>39601</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U21" s="8">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="V21" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="e" vm="3">
+      <c r="A22" s="7" t="e" vm="2">
         <v>#VALUE!</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>154</v>
+        <v>199</v>
       </c>
       <c r="D22" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G22" s="8">
-        <v>0.41</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="H22" s="8">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="I22" s="8">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J22" s="8">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K22" s="8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="L22" s="8">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="M22" s="9">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="N22" s="9">
-        <v>0.875</v>
+        <v>0.75</v>
       </c>
       <c r="O22" s="9">
-        <v>1.125</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P22" s="9">
-        <v>0.46124999999999999</v>
+        <v>0.31900000000000001</v>
       </c>
       <c r="Q22" s="9">
-        <v>0.25</v>
+        <v>1.55</v>
       </c>
       <c r="R22" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S22" s="10">
-        <v>39435</v>
+        <v>39342</v>
       </c>
       <c r="T22" s="8" t="s">
         <v>104</v>
       </c>
       <c r="U22" s="8">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="V22" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
@@ -17756,13 +17779,13 @@
         <v>225</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>10</v>
@@ -17771,66 +17794,66 @@
         <v>0.3</v>
       </c>
       <c r="H23" s="8">
+        <v>28</v>
+      </c>
+      <c r="I23" s="8">
+        <v>8</v>
+      </c>
+      <c r="J23" s="8">
+        <v>21</v>
+      </c>
+      <c r="K23" s="8">
+        <v>29</v>
+      </c>
+      <c r="L23" s="8">
         <v>32</v>
       </c>
-      <c r="I23" s="8">
-        <v>10</v>
-      </c>
-      <c r="J23" s="8">
-        <v>23</v>
-      </c>
-      <c r="K23" s="8">
-        <v>33</v>
-      </c>
-      <c r="L23" s="8">
-        <v>8</v>
-      </c>
       <c r="M23" s="9">
-        <v>0.3125</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N23" s="9">
-        <v>0.71875</v>
+        <v>0.75</v>
       </c>
       <c r="O23" s="9">
-        <v>1.03125</v>
+        <v>1.0357142857142858</v>
       </c>
       <c r="P23" s="9">
-        <v>0.30937500000000001</v>
+        <v>0.31071428571428572</v>
       </c>
       <c r="Q23" s="9">
-        <v>0.25</v>
+        <v>1.1428571428571428</v>
       </c>
       <c r="R23" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S23" s="10">
-        <v>39677</v>
+        <v>39621</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="U23" s="8">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="V23" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A24" s="7" t="e" vm="6">
+    <row r="24" spans="1:22" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>215</v>
+        <v>125</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>4</v>
@@ -17839,182 +17862,182 @@
         <v>0.3</v>
       </c>
       <c r="H24" s="8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I24" s="8">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J24" s="8">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K24" s="8">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L24" s="8">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="M24" s="9">
-        <v>0.65517241379310343</v>
+        <v>0.58064516129032262</v>
       </c>
       <c r="N24" s="9">
-        <v>0.55172413793103448</v>
+        <v>0.45161290322580644</v>
       </c>
       <c r="O24" s="9">
-        <v>1.2068965517241379</v>
+        <v>1.032258064516129</v>
       </c>
       <c r="P24" s="9">
-        <v>0.36206896551724138</v>
+        <v>0.30967741935483867</v>
       </c>
       <c r="Q24" s="9">
-        <v>0.20689655172413793</v>
+        <v>0.83870967741935487</v>
       </c>
       <c r="R24" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S24" s="10">
-        <v>39398</v>
+        <v>39536</v>
       </c>
       <c r="T24" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="U24" s="8">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="V24" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="e" vm="1">
+      <c r="A25" s="7" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G25" s="8">
-        <v>0.78</v>
+        <v>0.3</v>
       </c>
       <c r="H25" s="8">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="I25" s="8">
         <v>6</v>
       </c>
       <c r="J25" s="8">
+        <v>27</v>
+      </c>
+      <c r="K25" s="8">
+        <v>33</v>
+      </c>
+      <c r="L25" s="8">
         <v>18</v>
       </c>
-      <c r="K25" s="8">
-        <v>24</v>
-      </c>
-      <c r="L25" s="8">
-        <v>4</v>
-      </c>
       <c r="M25" s="9">
-        <v>0.24</v>
+        <v>0.1875</v>
       </c>
       <c r="N25" s="9">
-        <v>0.72</v>
+        <v>0.84375</v>
       </c>
       <c r="O25" s="9">
-        <v>0.96</v>
+        <v>1.03125</v>
       </c>
       <c r="P25" s="9">
-        <v>0.74880000000000002</v>
+        <v>0.30937500000000001</v>
       </c>
       <c r="Q25" s="9">
-        <v>0.16</v>
+        <v>0.5625</v>
       </c>
       <c r="R25" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S25" s="10">
-        <v>39354</v>
+        <v>39477</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="U25" s="8">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="V25" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="e" vm="2">
+      <c r="A26" s="7" t="e" vm="3">
         <v>#VALUE!</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>195</v>
+        <v>150</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>122</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>5</v>
+        <v>88</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G26" s="8">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="H26" s="8">
+        <v>32</v>
+      </c>
+      <c r="I26" s="8">
+        <v>10</v>
+      </c>
+      <c r="J26" s="8">
+        <v>23</v>
+      </c>
+      <c r="K26" s="8">
+        <v>33</v>
+      </c>
+      <c r="L26" s="8">
         <v>8</v>
       </c>
-      <c r="I26" s="8">
-        <v>2</v>
-      </c>
-      <c r="J26" s="8">
-        <v>6</v>
-      </c>
-      <c r="K26" s="8">
-        <v>8</v>
-      </c>
-      <c r="L26" s="8">
-        <v>0</v>
-      </c>
       <c r="M26" s="9">
+        <v>0.3125</v>
+      </c>
+      <c r="N26" s="9">
+        <v>0.71875</v>
+      </c>
+      <c r="O26" s="9">
+        <v>1.03125</v>
+      </c>
+      <c r="P26" s="9">
+        <v>0.30937500000000001</v>
+      </c>
+      <c r="Q26" s="9">
         <v>0.25</v>
-      </c>
-      <c r="N26" s="9">
-        <v>0.75</v>
-      </c>
-      <c r="O26" s="9">
-        <v>1</v>
-      </c>
-      <c r="P26" s="9">
-        <v>0.35</v>
-      </c>
-      <c r="Q26" s="9">
-        <v>0</v>
       </c>
       <c r="R26" s="9" t="s">
         <v>256</v>
       </c>
       <c r="S26" s="10">
-        <v>39698</v>
+        <v>39677</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="U26" s="8">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="V26" s="8" t="s">
         <v>97</v>
@@ -18817,7 +18840,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E0A3BD7-16A4-420B-A35C-B3ABE0C16BE1}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
